--- a/Master.xlsx
+++ b/Master.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA5B64A-0E0A-4009-BF0C-61CD6252B3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEDDE5C-25E5-4576-B01F-A3D72EDF7369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7725" yWindow="1410" windowWidth="24855" windowHeight="19110" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Healthcare</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Telecom &amp; Media</t>
+  </si>
+  <si>
+    <t>Gaming</t>
   </si>
 </sst>
 </file>
@@ -456,82 +459,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42384B1-3750-4D72-9C5D-79E74248529A}">
-  <dimension ref="B1:H11"/>
+  <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -539,12 +547,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
@@ -555,15 +563,16 @@
     <hyperlink ref="C6" r:id="rId2" xr:uid="{E9A02E12-5086-4F8F-855E-88B9AB1700B9}"/>
     <hyperlink ref="C5" r:id="rId3" xr:uid="{F3A619FF-CD81-419C-9F2D-9AF3BAF99313}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{3E3A7D78-2225-4FDD-A53E-395F4DEBA1CA}"/>
-    <hyperlink ref="H3" r:id="rId5" xr:uid="{2B65303F-578F-447C-BA7D-79EFD53A27E3}"/>
-    <hyperlink ref="H4" r:id="rId6" xr:uid="{2703CFA8-6F7B-4B1D-AB1F-22E8516323C5}"/>
-    <hyperlink ref="H5" r:id="rId7" xr:uid="{3D8CF38A-629A-428F-95F8-29802EA7365F}"/>
+    <hyperlink ref="G3" r:id="rId5" xr:uid="{2B65303F-578F-447C-BA7D-79EFD53A27E3}"/>
+    <hyperlink ref="G4" r:id="rId6" xr:uid="{2703CFA8-6F7B-4B1D-AB1F-22E8516323C5}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{3D8CF38A-629A-428F-95F8-29802EA7365F}"/>
     <hyperlink ref="C10" r:id="rId8" xr:uid="{1DCFCDF4-EFB4-495D-8529-6916F8E3FAF9}"/>
     <hyperlink ref="C9" r:id="rId9" xr:uid="{7391B2CC-0ADA-4E8B-94E2-02F6C460E04D}"/>
     <hyperlink ref="C11" r:id="rId10" xr:uid="{709BE174-354B-414C-9E0C-0CB26CB17087}"/>
     <hyperlink ref="B3" r:id="rId11" xr:uid="{24A2749C-99B8-4990-BB16-473551B4C3C9}"/>
-    <hyperlink ref="F3" r:id="rId12" xr:uid="{7C002F4D-FA82-46DF-88D0-F20531EFA3F8}"/>
+    <hyperlink ref="E3" r:id="rId12" xr:uid="{7C002F4D-FA82-46DF-88D0-F20531EFA3F8}"/>
     <hyperlink ref="B4" r:id="rId13" xr:uid="{8948FD7E-0C11-4C65-9F65-A8131ECB1883}"/>
+    <hyperlink ref="C3" r:id="rId14" xr:uid="{5BD33B80-85A5-495B-8D10-F6024818A7EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEDDE5C-25E5-4576-B01F-A3D72EDF7369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997D7610-0B54-4ABA-A689-1F01F4E8C6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="53685" yWindow="1305" windowWidth="30810" windowHeight="19200" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Healthcare</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Gaming</t>
+  </si>
+  <si>
+    <t>Computational Chemistry</t>
   </si>
 </sst>
 </file>
@@ -459,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42384B1-3750-4D72-9C5D-79E74248529A}">
-  <dimension ref="B1:G11"/>
+  <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -555,6 +558,16 @@
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -573,6 +586,7 @@
     <hyperlink ref="E3" r:id="rId12" xr:uid="{7C002F4D-FA82-46DF-88D0-F20531EFA3F8}"/>
     <hyperlink ref="B4" r:id="rId13" xr:uid="{8948FD7E-0C11-4C65-9F65-A8131ECB1883}"/>
     <hyperlink ref="C3" r:id="rId14" xr:uid="{5BD33B80-85A5-495B-8D10-F6024818A7EA}"/>
+    <hyperlink ref="B14" r:id="rId15" xr:uid="{00DB20DF-95BE-4ACB-833E-78679B1DEBE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997D7610-0B54-4ABA-A689-1F01F4E8C6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3687FD-A6BD-4D5E-BD95-FAA181CFC7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53685" yWindow="1305" windowWidth="30810" windowHeight="19200" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="70500" yWindow="0" windowWidth="27720" windowHeight="16485" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Healthcare</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Alzheimer's</t>
   </si>
   <si>
-    <t>Oncology</t>
-  </si>
-  <si>
     <t>Crypto</t>
   </si>
   <si>
@@ -93,6 +90,57 @@
   </si>
   <si>
     <t>Computational Chemistry</t>
+  </si>
+  <si>
+    <t>Learning</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>Philosophy</t>
+  </si>
+  <si>
+    <t>Cardiovascular</t>
+  </si>
+  <si>
+    <t>Hepatology</t>
+  </si>
+  <si>
+    <t>Nephrology</t>
+  </si>
+  <si>
+    <t>Hematology</t>
+  </si>
+  <si>
+    <t>Oncology (Solid Tumors)</t>
+  </si>
+  <si>
+    <t>Women's Health, Men's Health, Urology</t>
+  </si>
+  <si>
+    <t>Endocrinology</t>
+  </si>
+  <si>
+    <t>Neurology</t>
+  </si>
+  <si>
+    <t>Psychiatry</t>
+  </si>
+  <si>
+    <t>Genetic Diseases</t>
+  </si>
+  <si>
+    <t>Chess</t>
   </si>
 </sst>
 </file>
@@ -462,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42384B1-3750-4D72-9C5D-79E74248529A}">
-  <dimension ref="B1:G15"/>
+  <dimension ref="B1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -474,100 +522,154 @@
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>17</v>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -576,18 +678,22 @@
     <hyperlink ref="C6" r:id="rId2" xr:uid="{E9A02E12-5086-4F8F-855E-88B9AB1700B9}"/>
     <hyperlink ref="C5" r:id="rId3" xr:uid="{F3A619FF-CD81-419C-9F2D-9AF3BAF99313}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{3E3A7D78-2225-4FDD-A53E-395F4DEBA1CA}"/>
-    <hyperlink ref="G3" r:id="rId5" xr:uid="{2B65303F-578F-447C-BA7D-79EFD53A27E3}"/>
-    <hyperlink ref="G4" r:id="rId6" xr:uid="{2703CFA8-6F7B-4B1D-AB1F-22E8516323C5}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{3D8CF38A-629A-428F-95F8-29802EA7365F}"/>
+    <hyperlink ref="H3" r:id="rId5" xr:uid="{2B65303F-578F-447C-BA7D-79EFD53A27E3}"/>
+    <hyperlink ref="H4" r:id="rId6" xr:uid="{2703CFA8-6F7B-4B1D-AB1F-22E8516323C5}"/>
+    <hyperlink ref="H5" r:id="rId7" xr:uid="{3D8CF38A-629A-428F-95F8-29802EA7365F}"/>
     <hyperlink ref="C10" r:id="rId8" xr:uid="{1DCFCDF4-EFB4-495D-8529-6916F8E3FAF9}"/>
     <hyperlink ref="C9" r:id="rId9" xr:uid="{7391B2CC-0ADA-4E8B-94E2-02F6C460E04D}"/>
     <hyperlink ref="C11" r:id="rId10" xr:uid="{709BE174-354B-414C-9E0C-0CB26CB17087}"/>
     <hyperlink ref="B3" r:id="rId11" xr:uid="{24A2749C-99B8-4990-BB16-473551B4C3C9}"/>
-    <hyperlink ref="E3" r:id="rId12" xr:uid="{7C002F4D-FA82-46DF-88D0-F20531EFA3F8}"/>
+    <hyperlink ref="F9" r:id="rId12" xr:uid="{7C002F4D-FA82-46DF-88D0-F20531EFA3F8}"/>
     <hyperlink ref="B4" r:id="rId13" xr:uid="{8948FD7E-0C11-4C65-9F65-A8131ECB1883}"/>
     <hyperlink ref="C3" r:id="rId14" xr:uid="{5BD33B80-85A5-495B-8D10-F6024818A7EA}"/>
     <hyperlink ref="B14" r:id="rId15" xr:uid="{00DB20DF-95BE-4ACB-833E-78679B1DEBE4}"/>
+    <hyperlink ref="H10" r:id="rId16" xr:uid="{B5350D8F-E15C-4D97-AFF4-87976D01709F}"/>
+    <hyperlink ref="H12" r:id="rId17" xr:uid="{A4E89726-D06D-4F39-9FDF-8E6FF757E15B}"/>
+    <hyperlink ref="H14" r:id="rId18" xr:uid="{E240AB7D-EB2A-4C47-ACE3-6DC4E97E10C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId19"/>
 </worksheet>
 </file>
--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3687FD-A6BD-4D5E-BD95-FAA181CFC7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62148D69-6399-43A1-B124-D5EFB2F1E80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="70500" yWindow="0" windowWidth="27720" windowHeight="16485" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
@@ -513,7 +513,7 @@
   <dimension ref="B1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62148D69-6399-43A1-B124-D5EFB2F1E80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E870046F-3007-4259-AE4D-186DC8E199B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70500" yWindow="0" windowWidth="27720" windowHeight="16485" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="57150" yWindow="3330" windowWidth="27720" windowHeight="16485" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Healthcare</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Chess</t>
+  </si>
+  <si>
+    <t>Literature (Academic Papers)</t>
   </si>
 </sst>
 </file>
@@ -513,7 +516,7 @@
   <dimension ref="B1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -646,25 +649,28 @@
         <v>29</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H13" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="H13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>20</v>
+      <c r="H14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>16</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.2">
@@ -690,10 +696,11 @@
     <hyperlink ref="C3" r:id="rId14" xr:uid="{5BD33B80-85A5-495B-8D10-F6024818A7EA}"/>
     <hyperlink ref="B14" r:id="rId15" xr:uid="{00DB20DF-95BE-4ACB-833E-78679B1DEBE4}"/>
     <hyperlink ref="H10" r:id="rId16" xr:uid="{B5350D8F-E15C-4D97-AFF4-87976D01709F}"/>
-    <hyperlink ref="H12" r:id="rId17" xr:uid="{A4E89726-D06D-4F39-9FDF-8E6FF757E15B}"/>
-    <hyperlink ref="H14" r:id="rId18" xr:uid="{E240AB7D-EB2A-4C47-ACE3-6DC4E97E10C6}"/>
+    <hyperlink ref="H13" r:id="rId17" xr:uid="{A4E89726-D06D-4F39-9FDF-8E6FF757E15B}"/>
+    <hyperlink ref="H15" r:id="rId18" xr:uid="{E240AB7D-EB2A-4C47-ACE3-6DC4E97E10C6}"/>
+    <hyperlink ref="H12" r:id="rId19" xr:uid="{03928271-2931-4899-87B7-284D280588C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId19"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId20"/>
 </worksheet>
 </file>
--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E870046F-3007-4259-AE4D-186DC8E199B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F8D0FA-B1C8-4EC2-AA60-DF348CFA4E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57150" yWindow="3330" windowWidth="27720" windowHeight="16485" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="51885" yWindow="2175" windowWidth="27720" windowHeight="16485" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Healthcare</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>Literature (Academic Papers)</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>Poker</t>
+  </si>
+  <si>
+    <t>Blackjack</t>
+  </si>
+  <si>
+    <t>Biology</t>
   </si>
 </sst>
 </file>
@@ -513,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42384B1-3750-4D72-9C5D-79E74248529A}">
-  <dimension ref="B1:H17"/>
+  <dimension ref="B1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -626,11 +638,11 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -640,42 +652,58 @@
       <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="H11" t="s">
-        <v>22</v>
+      <c r="H11" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>35</v>
+      <c r="H12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H13" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="2" t="s">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H17" t="s">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -695,12 +723,15 @@
     <hyperlink ref="B4" r:id="rId13" xr:uid="{8948FD7E-0C11-4C65-9F65-A8131ECB1883}"/>
     <hyperlink ref="C3" r:id="rId14" xr:uid="{5BD33B80-85A5-495B-8D10-F6024818A7EA}"/>
     <hyperlink ref="B14" r:id="rId15" xr:uid="{00DB20DF-95BE-4ACB-833E-78679B1DEBE4}"/>
-    <hyperlink ref="H10" r:id="rId16" xr:uid="{B5350D8F-E15C-4D97-AFF4-87976D01709F}"/>
-    <hyperlink ref="H13" r:id="rId17" xr:uid="{A4E89726-D06D-4F39-9FDF-8E6FF757E15B}"/>
-    <hyperlink ref="H15" r:id="rId18" xr:uid="{E240AB7D-EB2A-4C47-ACE3-6DC4E97E10C6}"/>
-    <hyperlink ref="H12" r:id="rId19" xr:uid="{03928271-2931-4899-87B7-284D280588C6}"/>
+    <hyperlink ref="H11" r:id="rId16" xr:uid="{B5350D8F-E15C-4D97-AFF4-87976D01709F}"/>
+    <hyperlink ref="H14" r:id="rId17" xr:uid="{A4E89726-D06D-4F39-9FDF-8E6FF757E15B}"/>
+    <hyperlink ref="H16" r:id="rId18" xr:uid="{E240AB7D-EB2A-4C47-ACE3-6DC4E97E10C6}"/>
+    <hyperlink ref="H13" r:id="rId19" xr:uid="{03928271-2931-4899-87B7-284D280588C6}"/>
+    <hyperlink ref="B15" r:id="rId20" xr:uid="{F9503C01-C6D8-4507-B1D8-228E2A2FFAAD}"/>
+    <hyperlink ref="H10" r:id="rId21" xr:uid="{A65108F0-2E05-4701-9FD5-ECB4643B538C}"/>
+    <hyperlink ref="E10" r:id="rId22" xr:uid="{80621359-2F8B-4A5B-BC6A-2FB82EA4769B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId20"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId23"/>
 </worksheet>
 </file>
--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F8D0FA-B1C8-4EC2-AA60-DF348CFA4E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332AB428-4103-4D87-B314-1751D4DD1549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51885" yWindow="2175" windowWidth="27720" windowHeight="16485" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="5070" yWindow="1020" windowWidth="25950" windowHeight="20580" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Healthcare</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Biology</t>
+  </si>
+  <si>
+    <t>Macro</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
   <dimension ref="B1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -657,10 +660,13 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
       <c r="E12" t="s">
         <v>29</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -730,8 +736,9 @@
     <hyperlink ref="B15" r:id="rId20" xr:uid="{F9503C01-C6D8-4507-B1D8-228E2A2FFAAD}"/>
     <hyperlink ref="H10" r:id="rId21" xr:uid="{A65108F0-2E05-4701-9FD5-ECB4643B538C}"/>
     <hyperlink ref="E10" r:id="rId22" xr:uid="{80621359-2F8B-4A5B-BC6A-2FB82EA4769B}"/>
+    <hyperlink ref="H12" r:id="rId23" xr:uid="{CD87D806-2453-46D8-B81F-88E0AF410576}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId23"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId24"/>
 </worksheet>
 </file>
--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332AB428-4103-4D87-B314-1751D4DD1549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0352773-358D-4B47-AAA9-766393FCEBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="1020" windowWidth="25950" windowHeight="20580" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="5370" yWindow="2325" windowWidth="24870" windowHeight="17595" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Healthcare</t>
   </si>
@@ -152,13 +152,16 @@
     <t>Poker</t>
   </si>
   <si>
-    <t>Blackjack</t>
-  </si>
-  <si>
     <t>Biology</t>
   </si>
   <si>
     <t>Macro</t>
+  </si>
+  <si>
+    <t>Interactive Entertainment</t>
+  </si>
+  <si>
+    <t>Card Games (Non-Poker)</t>
   </si>
 </sst>
 </file>
@@ -528,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42384B1-3750-4D72-9C5D-79E74248529A}">
-  <dimension ref="B1:H18"/>
+  <dimension ref="B1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -645,7 +648,7 @@
         <v>28</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -661,7 +664,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
@@ -696,19 +699,24 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
         <v>37</v>
       </c>
     </row>
@@ -737,8 +745,10 @@
     <hyperlink ref="H10" r:id="rId21" xr:uid="{A65108F0-2E05-4701-9FD5-ECB4643B538C}"/>
     <hyperlink ref="E10" r:id="rId22" xr:uid="{80621359-2F8B-4A5B-BC6A-2FB82EA4769B}"/>
     <hyperlink ref="H12" r:id="rId23" xr:uid="{CD87D806-2453-46D8-B81F-88E0AF410576}"/>
+    <hyperlink ref="E18" r:id="rId24" xr:uid="{A3E39291-0AD8-4434-9956-506F6456A6EF}"/>
+    <hyperlink ref="E17" r:id="rId25" xr:uid="{3E303140-6F63-43CA-A742-BF4F34C477BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId24"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId26"/>
 </worksheet>
 </file>
--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0352773-358D-4B47-AAA9-766393FCEBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63A59EC-A3A6-4B7F-BCDE-0ABA2DBCA32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="2325" windowWidth="24870" windowHeight="17595" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-50025" yWindow="1200" windowWidth="36795" windowHeight="17595" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <dimension ref="B1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -542,8 +542,9 @@
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.2">

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63A59EC-A3A6-4B7F-BCDE-0ABA2DBCA32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE90D73-F611-41A4-BE94-32C43DB22728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50025" yWindow="1200" windowWidth="36795" windowHeight="17595" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="1320" yWindow="1815" windowWidth="34260" windowHeight="17400" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Healthcare</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>Card Games (Non-Poker)</t>
+  </si>
+  <si>
+    <t>Godel</t>
+  </si>
+  <si>
+    <t>Games (Combinatorial)</t>
   </si>
 </sst>
 </file>
@@ -531,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42384B1-3750-4D72-9C5D-79E74248529A}">
-  <dimension ref="B1:H19"/>
+  <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -699,6 +705,9 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="E16" t="s">
         <v>41</v>
       </c>
@@ -712,12 +721,17 @@
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E19" t="s">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
         <v>37</v>
       </c>
     </row>
@@ -746,10 +760,11 @@
     <hyperlink ref="H10" r:id="rId21" xr:uid="{A65108F0-2E05-4701-9FD5-ECB4643B538C}"/>
     <hyperlink ref="E10" r:id="rId22" xr:uid="{80621359-2F8B-4A5B-BC6A-2FB82EA4769B}"/>
     <hyperlink ref="H12" r:id="rId23" xr:uid="{CD87D806-2453-46D8-B81F-88E0AF410576}"/>
-    <hyperlink ref="E18" r:id="rId24" xr:uid="{A3E39291-0AD8-4434-9956-506F6456A6EF}"/>
+    <hyperlink ref="E19" r:id="rId24" xr:uid="{A3E39291-0AD8-4434-9956-506F6456A6EF}"/>
     <hyperlink ref="E17" r:id="rId25" xr:uid="{3E303140-6F63-43CA-A742-BF4F34C477BF}"/>
+    <hyperlink ref="B16" r:id="rId26" xr:uid="{6113C533-6134-4D6E-B70B-33E844D3E20D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId26"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId27"/>
 </worksheet>
 </file>
--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE90D73-F611-41A4-BE94-32C43DB22728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D8DFAF-8731-4D20-A509-588116F4C1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1815" windowWidth="34260" windowHeight="17400" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-51240" yWindow="105" windowWidth="33795" windowHeight="20775" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Healthcare</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Games (Combinatorial)</t>
+  </si>
+  <si>
+    <t>Hedge Funds</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
   <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -715,22 +718,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
       <c r="E17" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E19" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
         <v>37</v>
       </c>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D8DFAF-8731-4D20-A509-588116F4C1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD2B2EE-73C6-46B1-B019-F7C2CF94FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51240" yWindow="105" windowWidth="33795" windowHeight="20775" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-49860" yWindow="510" windowWidth="33330" windowHeight="20340" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Healthcare</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Hedge Funds</t>
+  </si>
+  <si>
+    <t>Patents</t>
   </si>
 </sst>
 </file>
@@ -221,10 +224,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -543,13 +547,13 @@
   <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
@@ -692,6 +696,9 @@
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C14" s="3">
+        <v>44928</v>
+      </c>
       <c r="H14" s="2" t="s">
         <v>19</v>
       </c>
@@ -711,6 +718,9 @@
       <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="C16" s="3">
+        <v>44928</v>
+      </c>
       <c r="E16" t="s">
         <v>41</v>
       </c>
@@ -719,14 +729,23 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44928</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44927</v>
+      </c>
       <c r="E18" t="s">
         <v>43</v>
       </c>
@@ -769,8 +788,10 @@
     <hyperlink ref="E19" r:id="rId24" xr:uid="{A3E39291-0AD8-4434-9956-506F6456A6EF}"/>
     <hyperlink ref="E17" r:id="rId25" xr:uid="{3E303140-6F63-43CA-A742-BF4F34C477BF}"/>
     <hyperlink ref="B16" r:id="rId26" xr:uid="{6113C533-6134-4D6E-B70B-33E844D3E20D}"/>
+    <hyperlink ref="B17" r:id="rId27" xr:uid="{94B54C11-D57C-4517-801E-20549E100878}"/>
+    <hyperlink ref="B18" r:id="rId28" xr:uid="{548404B7-486D-4DC1-8702-5308F6B726F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId27"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId29"/>
 </worksheet>
 </file>
--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD2B2EE-73C6-46B1-B019-F7C2CF94FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DB77A8-D468-45E9-BD53-9F7E76E75C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49860" yWindow="510" windowWidth="33330" windowHeight="20340" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="1395" yWindow="1200" windowWidth="32655" windowHeight="19350" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Healthcare</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Gaming</t>
   </si>
   <si>
-    <t>Computational Chemistry</t>
-  </si>
-  <si>
     <t>Learning</t>
   </si>
   <si>
@@ -174,13 +171,19 @@
   </si>
   <si>
     <t>Patents</t>
+  </si>
+  <si>
+    <t>Comp. Chemistry</t>
+  </si>
+  <si>
+    <t>Books</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -199,6 +202,12 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -224,11 +233,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -544,220 +554,237 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42384B1-3750-4D72-9C5D-79E74248529A}">
-  <dimension ref="B1:H20"/>
+  <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="1.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="D5" s="3">
+        <v>44930</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D6" s="3">
+        <v>44932</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D8" s="3">
+        <v>44930</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="H13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C14" s="3">
         <v>44928</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="4"/>
+      <c r="F15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3">
         <v>44928</v>
       </c>
-      <c r="E16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3">
         <v>44928</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="3">
-        <v>44927</v>
-      </c>
-      <c r="E18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E19" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E20" t="s">
-        <v>37</v>
+        <v>44929</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C19" s="4"/>
+      <c r="F19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -766,27 +793,27 @@
     <hyperlink ref="C6" r:id="rId2" xr:uid="{E9A02E12-5086-4F8F-855E-88B9AB1700B9}"/>
     <hyperlink ref="C5" r:id="rId3" xr:uid="{F3A619FF-CD81-419C-9F2D-9AF3BAF99313}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{3E3A7D78-2225-4FDD-A53E-395F4DEBA1CA}"/>
-    <hyperlink ref="H3" r:id="rId5" xr:uid="{2B65303F-578F-447C-BA7D-79EFD53A27E3}"/>
-    <hyperlink ref="H4" r:id="rId6" xr:uid="{2703CFA8-6F7B-4B1D-AB1F-22E8516323C5}"/>
-    <hyperlink ref="H5" r:id="rId7" xr:uid="{3D8CF38A-629A-428F-95F8-29802EA7365F}"/>
+    <hyperlink ref="I3" r:id="rId5" xr:uid="{2B65303F-578F-447C-BA7D-79EFD53A27E3}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{2703CFA8-6F7B-4B1D-AB1F-22E8516323C5}"/>
+    <hyperlink ref="I5" r:id="rId7" xr:uid="{3D8CF38A-629A-428F-95F8-29802EA7365F}"/>
     <hyperlink ref="C10" r:id="rId8" xr:uid="{1DCFCDF4-EFB4-495D-8529-6916F8E3FAF9}"/>
     <hyperlink ref="C9" r:id="rId9" xr:uid="{7391B2CC-0ADA-4E8B-94E2-02F6C460E04D}"/>
     <hyperlink ref="C11" r:id="rId10" xr:uid="{709BE174-354B-414C-9E0C-0CB26CB17087}"/>
     <hyperlink ref="B3" r:id="rId11" xr:uid="{24A2749C-99B8-4990-BB16-473551B4C3C9}"/>
-    <hyperlink ref="F9" r:id="rId12" xr:uid="{7C002F4D-FA82-46DF-88D0-F20531EFA3F8}"/>
+    <hyperlink ref="G9" r:id="rId12" xr:uid="{7C002F4D-FA82-46DF-88D0-F20531EFA3F8}"/>
     <hyperlink ref="B4" r:id="rId13" xr:uid="{8948FD7E-0C11-4C65-9F65-A8131ECB1883}"/>
     <hyperlink ref="C3" r:id="rId14" xr:uid="{5BD33B80-85A5-495B-8D10-F6024818A7EA}"/>
-    <hyperlink ref="B14" r:id="rId15" xr:uid="{00DB20DF-95BE-4ACB-833E-78679B1DEBE4}"/>
-    <hyperlink ref="H11" r:id="rId16" xr:uid="{B5350D8F-E15C-4D97-AFF4-87976D01709F}"/>
-    <hyperlink ref="H14" r:id="rId17" xr:uid="{A4E89726-D06D-4F39-9FDF-8E6FF757E15B}"/>
-    <hyperlink ref="H16" r:id="rId18" xr:uid="{E240AB7D-EB2A-4C47-ACE3-6DC4E97E10C6}"/>
-    <hyperlink ref="H13" r:id="rId19" xr:uid="{03928271-2931-4899-87B7-284D280588C6}"/>
+    <hyperlink ref="B14" r:id="rId15" display="Computational Chemistry" xr:uid="{00DB20DF-95BE-4ACB-833E-78679B1DEBE4}"/>
+    <hyperlink ref="I12" r:id="rId16" xr:uid="{B5350D8F-E15C-4D97-AFF4-87976D01709F}"/>
+    <hyperlink ref="I15" r:id="rId17" xr:uid="{A4E89726-D06D-4F39-9FDF-8E6FF757E15B}"/>
+    <hyperlink ref="I17" r:id="rId18" xr:uid="{E240AB7D-EB2A-4C47-ACE3-6DC4E97E10C6}"/>
+    <hyperlink ref="I14" r:id="rId19" xr:uid="{03928271-2931-4899-87B7-284D280588C6}"/>
     <hyperlink ref="B15" r:id="rId20" xr:uid="{F9503C01-C6D8-4507-B1D8-228E2A2FFAAD}"/>
-    <hyperlink ref="H10" r:id="rId21" xr:uid="{A65108F0-2E05-4701-9FD5-ECB4643B538C}"/>
-    <hyperlink ref="E10" r:id="rId22" xr:uid="{80621359-2F8B-4A5B-BC6A-2FB82EA4769B}"/>
-    <hyperlink ref="H12" r:id="rId23" xr:uid="{CD87D806-2453-46D8-B81F-88E0AF410576}"/>
-    <hyperlink ref="E19" r:id="rId24" xr:uid="{A3E39291-0AD8-4434-9956-506F6456A6EF}"/>
-    <hyperlink ref="E17" r:id="rId25" xr:uid="{3E303140-6F63-43CA-A742-BF4F34C477BF}"/>
+    <hyperlink ref="I10" r:id="rId21" xr:uid="{A65108F0-2E05-4701-9FD5-ECB4643B538C}"/>
+    <hyperlink ref="F10" r:id="rId22" xr:uid="{80621359-2F8B-4A5B-BC6A-2FB82EA4769B}"/>
+    <hyperlink ref="I13" r:id="rId23" xr:uid="{CD87D806-2453-46D8-B81F-88E0AF410576}"/>
+    <hyperlink ref="F19" r:id="rId24" xr:uid="{A3E39291-0AD8-4434-9956-506F6456A6EF}"/>
+    <hyperlink ref="F17" r:id="rId25" xr:uid="{3E303140-6F63-43CA-A742-BF4F34C477BF}"/>
     <hyperlink ref="B16" r:id="rId26" xr:uid="{6113C533-6134-4D6E-B70B-33E844D3E20D}"/>
     <hyperlink ref="B17" r:id="rId27" xr:uid="{94B54C11-D57C-4517-801E-20549E100878}"/>
     <hyperlink ref="B18" r:id="rId28" xr:uid="{548404B7-486D-4DC1-8702-5308F6B726F9}"/>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DB77A8-D468-45E9-BD53-9F7E76E75C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FA5DAF-12ED-41A0-B62A-202646E3075F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="1200" windowWidth="32655" windowHeight="19350" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-45045" yWindow="3060" windowWidth="40860" windowHeight="16275" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Healthcare</t>
   </si>
@@ -177,12 +177,15 @@
   </si>
   <si>
     <t>Books</t>
+  </si>
+  <si>
+    <t>HCIT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -238,14 +241,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{480A117D-68A0-43C0-AEB1-AB10F004A16B}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -554,15 +559,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42384B1-3750-4D72-9C5D-79E74248529A}">
-  <dimension ref="B1:I20"/>
+  <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" customWidth="1"/>
@@ -570,12 +575,14 @@
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -586,7 +593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -600,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -610,8 +617,11 @@
       <c r="I4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="4">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -629,194 +639,209 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D7" s="3">
         <v>44932</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C7" s="2" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D9" s="3">
         <v>44930</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F9" t="s">
+      <c r="D10" s="3">
+        <v>44937</v>
+      </c>
+      <c r="F10" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C10" s="2" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="D11" s="3">
+        <v>44938</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="2" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>31</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I13" s="2" t="s">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I14" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" s="3">
-        <v>44928</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="F15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="C16" s="3">
         <v>44928</v>
       </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" t="s">
-        <v>22</v>
+      <c r="F16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3">
-        <v>44928</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>19</v>
+        <v>44943</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44940</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44928</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C20" s="3">
         <v>44929</v>
       </c>
-      <c r="F18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C19" s="4"/>
-      <c r="F19" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F20" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{7BD72134-257F-4B05-A458-E84443D3C1BA}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{E9A02E12-5086-4F8F-855E-88B9AB1700B9}"/>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{7BD72134-257F-4B05-A458-E84443D3C1BA}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{E9A02E12-5086-4F8F-855E-88B9AB1700B9}"/>
     <hyperlink ref="C5" r:id="rId3" xr:uid="{F3A619FF-CD81-419C-9F2D-9AF3BAF99313}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{3E3A7D78-2225-4FDD-A53E-395F4DEBA1CA}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{3E3A7D78-2225-4FDD-A53E-395F4DEBA1CA}"/>
     <hyperlink ref="I3" r:id="rId5" xr:uid="{2B65303F-578F-447C-BA7D-79EFD53A27E3}"/>
     <hyperlink ref="I4" r:id="rId6" xr:uid="{2703CFA8-6F7B-4B1D-AB1F-22E8516323C5}"/>
     <hyperlink ref="I5" r:id="rId7" xr:uid="{3D8CF38A-629A-428F-95F8-29802EA7365F}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{1DCFCDF4-EFB4-495D-8529-6916F8E3FAF9}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{7391B2CC-0ADA-4E8B-94E2-02F6C460E04D}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{709BE174-354B-414C-9E0C-0CB26CB17087}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{1DCFCDF4-EFB4-495D-8529-6916F8E3FAF9}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{7391B2CC-0ADA-4E8B-94E2-02F6C460E04D}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{709BE174-354B-414C-9E0C-0CB26CB17087}"/>
     <hyperlink ref="B3" r:id="rId11" xr:uid="{24A2749C-99B8-4990-BB16-473551B4C3C9}"/>
-    <hyperlink ref="G9" r:id="rId12" xr:uid="{7C002F4D-FA82-46DF-88D0-F20531EFA3F8}"/>
+    <hyperlink ref="G10" r:id="rId12" xr:uid="{7C002F4D-FA82-46DF-88D0-F20531EFA3F8}"/>
     <hyperlink ref="B4" r:id="rId13" xr:uid="{8948FD7E-0C11-4C65-9F65-A8131ECB1883}"/>
     <hyperlink ref="C3" r:id="rId14" xr:uid="{5BD33B80-85A5-495B-8D10-F6024818A7EA}"/>
-    <hyperlink ref="B14" r:id="rId15" display="Computational Chemistry" xr:uid="{00DB20DF-95BE-4ACB-833E-78679B1DEBE4}"/>
-    <hyperlink ref="I12" r:id="rId16" xr:uid="{B5350D8F-E15C-4D97-AFF4-87976D01709F}"/>
-    <hyperlink ref="I15" r:id="rId17" xr:uid="{A4E89726-D06D-4F39-9FDF-8E6FF757E15B}"/>
-    <hyperlink ref="I17" r:id="rId18" xr:uid="{E240AB7D-EB2A-4C47-ACE3-6DC4E97E10C6}"/>
-    <hyperlink ref="I14" r:id="rId19" xr:uid="{03928271-2931-4899-87B7-284D280588C6}"/>
-    <hyperlink ref="B15" r:id="rId20" xr:uid="{F9503C01-C6D8-4507-B1D8-228E2A2FFAAD}"/>
-    <hyperlink ref="I10" r:id="rId21" xr:uid="{A65108F0-2E05-4701-9FD5-ECB4643B538C}"/>
-    <hyperlink ref="F10" r:id="rId22" xr:uid="{80621359-2F8B-4A5B-BC6A-2FB82EA4769B}"/>
-    <hyperlink ref="I13" r:id="rId23" xr:uid="{CD87D806-2453-46D8-B81F-88E0AF410576}"/>
-    <hyperlink ref="F19" r:id="rId24" xr:uid="{A3E39291-0AD8-4434-9956-506F6456A6EF}"/>
-    <hyperlink ref="F17" r:id="rId25" xr:uid="{3E303140-6F63-43CA-A742-BF4F34C477BF}"/>
-    <hyperlink ref="B16" r:id="rId26" xr:uid="{6113C533-6134-4D6E-B70B-33E844D3E20D}"/>
-    <hyperlink ref="B17" r:id="rId27" xr:uid="{94B54C11-D57C-4517-801E-20549E100878}"/>
-    <hyperlink ref="B18" r:id="rId28" xr:uid="{548404B7-486D-4DC1-8702-5308F6B726F9}"/>
+    <hyperlink ref="B16" r:id="rId15" display="Computational Chemistry" xr:uid="{00DB20DF-95BE-4ACB-833E-78679B1DEBE4}"/>
+    <hyperlink ref="I13" r:id="rId16" xr:uid="{B5350D8F-E15C-4D97-AFF4-87976D01709F}"/>
+    <hyperlink ref="I16" r:id="rId17" xr:uid="{A4E89726-D06D-4F39-9FDF-8E6FF757E15B}"/>
+    <hyperlink ref="I18" r:id="rId18" xr:uid="{E240AB7D-EB2A-4C47-ACE3-6DC4E97E10C6}"/>
+    <hyperlink ref="I15" r:id="rId19" xr:uid="{03928271-2931-4899-87B7-284D280588C6}"/>
+    <hyperlink ref="B17" r:id="rId20" xr:uid="{F9503C01-C6D8-4507-B1D8-228E2A2FFAAD}"/>
+    <hyperlink ref="I11" r:id="rId21" xr:uid="{A65108F0-2E05-4701-9FD5-ECB4643B538C}"/>
+    <hyperlink ref="F11" r:id="rId22" xr:uid="{80621359-2F8B-4A5B-BC6A-2FB82EA4769B}"/>
+    <hyperlink ref="I14" r:id="rId23" xr:uid="{CD87D806-2453-46D8-B81F-88E0AF410576}"/>
+    <hyperlink ref="F20" r:id="rId24" xr:uid="{A3E39291-0AD8-4434-9956-506F6456A6EF}"/>
+    <hyperlink ref="F18" r:id="rId25" xr:uid="{3E303140-6F63-43CA-A742-BF4F34C477BF}"/>
+    <hyperlink ref="B18" r:id="rId26" xr:uid="{6113C533-6134-4D6E-B70B-33E844D3E20D}"/>
+    <hyperlink ref="B19" r:id="rId27" xr:uid="{94B54C11-D57C-4517-801E-20549E100878}"/>
+    <hyperlink ref="B20" r:id="rId28" xr:uid="{548404B7-486D-4DC1-8702-5308F6B726F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId29"/>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FA5DAF-12ED-41A0-B62A-202646E3075F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FA4CF5-78F8-425E-B988-865F84933D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45045" yWindow="3060" windowWidth="40860" windowHeight="16275" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="19260" yWindow="1290" windowWidth="28200" windowHeight="18270" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -551,7 +551,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42384B1-3750-4D72-9C5D-79E74248529A}">
   <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -629,7 +629,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="3">
-        <v>44930</v>
+        <v>44947</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" t="s">
@@ -662,6 +662,9 @@
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D8" s="3">
+        <v>44947</v>
+      </c>
       <c r="F8" t="s">
         <v>26</v>
       </c>
@@ -707,6 +710,9 @@
       <c r="F11" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="G11" s="3">
+        <v>44947</v>
+      </c>
       <c r="I11" s="2" t="s">
         <v>37</v>
       </c>
@@ -801,7 +807,7 @@
         <v>44</v>
       </c>
       <c r="C20" s="3">
-        <v>44929</v>
+        <v>44948</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>39</v>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FA4CF5-78F8-425E-B988-865F84933D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFBE084-0E76-47E5-A006-BFA6BF51D304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19260" yWindow="1290" windowWidth="28200" windowHeight="18270" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-47040" yWindow="735" windowWidth="28590" windowHeight="18735" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -236,12 +236,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -600,8 +599,11 @@
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="G3" s="3">
+        <v>44955</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>0</v>
@@ -611,13 +613,16 @@
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="3">
+        <v>44955</v>
+      </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>44942</v>
       </c>
     </row>
@@ -629,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="3">
-        <v>44947</v>
+        <v>44957</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" t="s">
@@ -716,6 +721,9 @@
       <c r="I11" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="J11" s="3">
+        <v>44955</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
@@ -796,7 +804,7 @@
         <v>43</v>
       </c>
       <c r="C19" s="3">
-        <v>44928</v>
+        <v>44954</v>
       </c>
       <c r="F19" t="s">
         <v>42</v>
@@ -848,8 +856,9 @@
     <hyperlink ref="B18" r:id="rId26" xr:uid="{6113C533-6134-4D6E-B70B-33E844D3E20D}"/>
     <hyperlink ref="B19" r:id="rId27" xr:uid="{94B54C11-D57C-4517-801E-20549E100878}"/>
     <hyperlink ref="B20" r:id="rId28" xr:uid="{548404B7-486D-4DC1-8702-5308F6B726F9}"/>
+    <hyperlink ref="F3" r:id="rId29" xr:uid="{7461AF2B-1114-4E32-AB2C-C6FAFC7D3A58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId29"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId30"/>
 </worksheet>
 </file>
--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFBE084-0E76-47E5-A006-BFA6BF51D304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D1743E-3373-4FE2-8326-FE5F7C0BC3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47040" yWindow="735" windowWidth="28590" windowHeight="18735" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="2655" yWindow="1920" windowWidth="29250" windowHeight="18735" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -693,7 +693,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="3">
-        <v>44937</v>
+        <v>44958</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D1743E-3373-4FE2-8326-FE5F7C0BC3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E006896-C276-4840-87B3-6F68C4B32CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="1920" windowWidth="29250" windowHeight="18735" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="14325" yWindow="7635" windowWidth="21420" windowHeight="13530" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -710,7 +710,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="3">
-        <v>44938</v>
+        <v>44958</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>27</v>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E006896-C276-4840-87B3-6F68C4B32CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AD9A91-8CB7-4FFB-8C10-B3E8E99264CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14325" yWindow="7635" windowWidth="21420" windowHeight="13530" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="25140" yWindow="0" windowWidth="26460" windowHeight="20880" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -550,7 +550,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -561,7 +561,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -634,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="3">
-        <v>44957</v>
+        <v>44961</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" t="s">
@@ -648,7 +648,9 @@
       <c r="C6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>44961</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="I6" s="2"/>
     </row>
@@ -657,7 +659,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="3">
-        <v>44932</v>
+        <v>44961</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -693,7 +695,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="3">
-        <v>44958</v>
+        <v>44961</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
@@ -857,8 +859,9 @@
     <hyperlink ref="B19" r:id="rId27" xr:uid="{94B54C11-D57C-4517-801E-20549E100878}"/>
     <hyperlink ref="B20" r:id="rId28" xr:uid="{548404B7-486D-4DC1-8702-5308F6B726F9}"/>
     <hyperlink ref="F3" r:id="rId29" xr:uid="{7461AF2B-1114-4E32-AB2C-C6FAFC7D3A58}"/>
+    <hyperlink ref="C6" r:id="rId30" xr:uid="{2C353417-9F4E-40AB-B114-1CBC57D488C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId30"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId31"/>
 </worksheet>
 </file>
--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AD9A91-8CB7-4FFB-8C10-B3E8E99264CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F801E0-FA31-4DFD-B29D-BF49F9091976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25140" yWindow="0" windowWidth="26460" windowHeight="20880" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="19800" yWindow="45" windowWidth="31845" windowHeight="20910" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -634,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="3">
-        <v>44961</v>
+        <v>44963</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" t="s">
@@ -753,6 +753,9 @@
       <c r="I14" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="J14" s="3">
+        <v>44961</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I15" s="2" t="s">
@@ -792,7 +795,7 @@
         <v>41</v>
       </c>
       <c r="C18" s="3">
-        <v>44940</v>
+        <v>44962</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>33</v>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F801E0-FA31-4DFD-B29D-BF49F9091976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6255D9A-3873-4D63-A561-96CB4AFC39D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19800" yWindow="45" windowWidth="31845" windowHeight="20910" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-47700" yWindow="3900" windowWidth="29190" windowHeight="15915" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -634,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="3">
-        <v>44963</v>
+        <v>44965</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" t="s">
@@ -681,7 +681,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>44930</v>
+        <v>44964</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="3">
-        <v>44958</v>
+        <v>44965</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>27</v>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6255D9A-3873-4D63-A561-96CB4AFC39D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D80B0FA-48D8-4D4B-A75D-EBF56FDEFDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47700" yWindow="3900" windowWidth="29190" windowHeight="15915" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-35565" yWindow="2085" windowWidth="24810" windowHeight="17385" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Software</t>
   </si>
   <si>
-    <t>Biopharma</t>
-  </si>
-  <si>
     <t>Industrials</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>HCIT</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
 </sst>
 </file>
@@ -561,7 +561,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -586,21 +586,21 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3">
         <v>44955</v>
@@ -611,16 +611,16 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3">
         <v>44955</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="3">
         <v>44942</v>
@@ -631,14 +631,14 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D5" s="3">
-        <v>44965</v>
+        <v>44971</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>4</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3">
         <v>44961</v>
@@ -656,35 +656,35 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3">
         <v>44961</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="3">
         <v>44947</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="3">
         <v>44964</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
@@ -698,13 +698,13 @@
         <v>44961</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
@@ -712,16 +712,16 @@
         <v>4</v>
       </c>
       <c r="D11" s="3">
-        <v>44965</v>
+        <v>44971</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="3">
         <v>44947</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J11" s="3">
         <v>44955</v>
@@ -729,29 +729,29 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" s="3">
         <v>44961</v>
@@ -759,83 +759,83 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3">
-        <v>44928</v>
+        <v>44973</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3">
         <v>44943</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3">
         <v>44962</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="3">
         <v>44954</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="3">
         <v>44948</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" xr:uid="{7BD72134-257F-4B05-A458-E84443D3C1BA}"/>
     <hyperlink ref="C7" r:id="rId2" xr:uid="{E9A02E12-5086-4F8F-855E-88B9AB1700B9}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{F3A619FF-CD81-419C-9F2D-9AF3BAF99313}"/>
+    <hyperlink ref="C5" r:id="rId3" display="Biopharma" xr:uid="{F3A619FF-CD81-419C-9F2D-9AF3BAF99313}"/>
     <hyperlink ref="C8" r:id="rId4" xr:uid="{3E3A7D78-2225-4FDD-A53E-395F4DEBA1CA}"/>
     <hyperlink ref="I3" r:id="rId5" xr:uid="{2B65303F-578F-447C-BA7D-79EFD53A27E3}"/>
     <hyperlink ref="I4" r:id="rId6" xr:uid="{2703CFA8-6F7B-4B1D-AB1F-22E8516323C5}"/>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D80B0FA-48D8-4D4B-A75D-EBF56FDEFDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6238CE-AAB0-46FD-AF0F-E30DAFE13B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35565" yWindow="2085" windowWidth="24810" windowHeight="17385" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="10245" yWindow="135" windowWidth="41355" windowHeight="20745" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -179,7 +179,7 @@
     <t>HCIT</t>
   </si>
   <si>
-    <t>W</t>
+    <t>Biopharma</t>
   </si>
 </sst>
 </file>
@@ -236,11 +236,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -561,7 +562,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -608,6 +609,9 @@
       <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="J3" s="3">
+        <v>44989</v>
+      </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -634,7 +638,7 @@
         <v>47</v>
       </c>
       <c r="D5" s="3">
-        <v>44971</v>
+        <v>44987</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" t="s">
@@ -712,7 +716,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="3">
-        <v>44971</v>
+        <v>44987</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>26</v>
@@ -800,6 +804,9 @@
       <c r="F18" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="G18" s="4">
+        <v>44989</v>
+      </c>
       <c r="I18" s="2" t="s">
         <v>18</v>
       </c>
@@ -820,7 +827,7 @@
         <v>43</v>
       </c>
       <c r="C20" s="3">
-        <v>44948</v>
+        <v>44989</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>38</v>
@@ -835,7 +842,7 @@
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" xr:uid="{7BD72134-257F-4B05-A458-E84443D3C1BA}"/>
     <hyperlink ref="C7" r:id="rId2" xr:uid="{E9A02E12-5086-4F8F-855E-88B9AB1700B9}"/>
-    <hyperlink ref="C5" r:id="rId3" display="Biopharma" xr:uid="{F3A619FF-CD81-419C-9F2D-9AF3BAF99313}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{F3A619FF-CD81-419C-9F2D-9AF3BAF99313}"/>
     <hyperlink ref="C8" r:id="rId4" xr:uid="{3E3A7D78-2225-4FDD-A53E-395F4DEBA1CA}"/>
     <hyperlink ref="I3" r:id="rId5" xr:uid="{2B65303F-578F-447C-BA7D-79EFD53A27E3}"/>
     <hyperlink ref="I4" r:id="rId6" xr:uid="{2703CFA8-6F7B-4B1D-AB1F-22E8516323C5}"/>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6238CE-AAB0-46FD-AF0F-E30DAFE13B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06AD00E-A200-4612-804A-CF749715B40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="135" windowWidth="41355" windowHeight="20745" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-47445" yWindow="1590" windowWidth="28920" windowHeight="15720" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -562,7 +562,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -572,7 +572,7 @@
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" customWidth="1"/>
     <col min="5" max="5" width="1.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="26.42578125" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06AD00E-A200-4612-804A-CF749715B40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC77274-8F5E-4DC3-927A-FFD80C15E95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47445" yWindow="1590" windowWidth="28920" windowHeight="15720" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -236,12 +236,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -562,7 +561,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -600,6 +599,9 @@
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D3" s="3">
+        <v>45004</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
@@ -638,7 +640,7 @@
         <v>47</v>
       </c>
       <c r="D5" s="3">
-        <v>44987</v>
+        <v>44999</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" t="s">
@@ -799,13 +801,13 @@
         <v>40</v>
       </c>
       <c r="C18" s="3">
-        <v>44962</v>
+        <v>45001</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="4">
-        <v>44989</v>
+      <c r="G18" s="3">
+        <v>45004</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>18</v>
@@ -831,6 +833,9 @@
       </c>
       <c r="F20" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="G20" s="3">
+        <v>45004</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC77274-8F5E-4DC3-927A-FFD80C15E95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C24911-F003-4185-99B8-A38BBCDE3998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="17790" yWindow="1950" windowWidth="29265" windowHeight="18405" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -737,6 +737,9 @@
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D12" s="3">
+        <v>45008</v>
+      </c>
       <c r="F12" t="s">
         <v>30</v>
       </c>
@@ -760,7 +763,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="3">
-        <v>44961</v>
+        <v>45010</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C24911-F003-4185-99B8-A38BBCDE3998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FAFF74-4002-46AF-B7CB-4B23D976C58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17790" yWindow="1950" windowWidth="29265" windowHeight="18405" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="11115" yWindow="2475" windowWidth="29265" windowHeight="18405" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -665,7 +665,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="3">
-        <v>44961</v>
+        <v>45014</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -676,7 +676,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="3">
-        <v>44947</v>
+        <v>45011</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FAFF74-4002-46AF-B7CB-4B23D976C58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E09133-71C1-460A-B213-55849364CAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11115" yWindow="2475" windowWidth="29265" windowHeight="18405" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-51615" yWindow="60" windowWidth="27420" windowHeight="20610" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -810,7 +810,7 @@
         <v>32</v>
       </c>
       <c r="G18" s="3">
-        <v>45004</v>
+        <v>45040</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>18</v>
@@ -838,7 +838,7 @@
         <v>38</v>
       </c>
       <c r="G20" s="3">
-        <v>45004</v>
+        <v>45040</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E09133-71C1-460A-B213-55849364CAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50C17C3-E5F8-432C-9EE0-9D090AD9CE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51615" yWindow="60" windowWidth="27420" windowHeight="20610" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-35865" yWindow="270" windowWidth="27420" windowHeight="20610" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -718,7 +718,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="3">
-        <v>44987</v>
+        <v>45041</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>26</v>
@@ -763,7 +763,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="3">
-        <v>45010</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50C17C3-E5F8-432C-9EE0-9D090AD9CE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB5DAB0-BF94-4F8A-8F0D-396549D64795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35865" yWindow="270" windowWidth="27420" windowHeight="20610" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="8655" yWindow="5085" windowWidth="38700" windowHeight="15345" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -640,7 +640,7 @@
         <v>47</v>
       </c>
       <c r="D5" s="3">
-        <v>44999</v>
+        <v>45048</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" t="s">
@@ -701,7 +701,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="3">
-        <v>44961</v>
+        <v>45048</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -718,7 +718,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="3">
-        <v>45041</v>
+        <v>45047</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>26</v>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB5DAB0-BF94-4F8A-8F0D-396549D64795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CF0177-D561-4E1F-BABB-448BB4531F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8655" yWindow="5085" windowWidth="38700" windowHeight="15345" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="38700" windowHeight="15345" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -701,7 +701,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="3">
-        <v>45048</v>
+        <v>45050</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -718,7 +718,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="3">
-        <v>45047</v>
+        <v>45050</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>26</v>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CF0177-D561-4E1F-BABB-448BB4531F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3472577B-9334-4732-8F29-8DF2F42E2AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="38700" windowHeight="15345" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="34725" windowHeight="20565" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Healthcare</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>Biopharma</t>
+  </si>
+  <si>
+    <t>Gastroenterology</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -629,7 +632,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="3">
-        <v>44942</v>
+        <v>45054</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
@@ -644,7 +647,7 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>4</v>
@@ -658,6 +661,9 @@
         <v>44961</v>
       </c>
       <c r="E6" s="3"/>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
@@ -742,6 +748,9 @@
       </c>
       <c r="F12" t="s">
         <v>30</v>
+      </c>
+      <c r="G12" s="3">
+        <v>45067</v>
       </c>
       <c r="I12" t="s">
         <v>45</v>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3472577B-9334-4732-8F29-8DF2F42E2AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A88BD1-9A9A-4FF5-BC6C-EA8F7E2BDCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="34725" windowHeight="20565" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-33645" yWindow="210" windowWidth="32430" windowHeight="20220" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -746,7 +746,7 @@
       <c r="D12" s="3">
         <v>45008</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G12" s="3">
@@ -887,8 +887,9 @@
     <hyperlink ref="B20" r:id="rId28" xr:uid="{548404B7-486D-4DC1-8702-5308F6B726F9}"/>
     <hyperlink ref="F3" r:id="rId29" xr:uid="{7461AF2B-1114-4E32-AB2C-C6FAFC7D3A58}"/>
     <hyperlink ref="C6" r:id="rId30" xr:uid="{2C353417-9F4E-40AB-B114-1CBC57D488C4}"/>
+    <hyperlink ref="F12" r:id="rId31" xr:uid="{48D24448-8336-4F85-A615-1301297E8AB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId31"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId32"/>
 </worksheet>
 </file>
--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A88BD1-9A9A-4FF5-BC6C-EA8F7E2BDCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2AB73C-F477-4F17-937E-781029687680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33645" yWindow="210" windowWidth="32430" windowHeight="20220" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-33585" yWindow="210" windowWidth="32370" windowHeight="20220" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -707,7 +707,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="3">
-        <v>45050</v>
+        <v>45075</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -724,7 +724,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="3">
-        <v>45050</v>
+        <v>45075</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>26</v>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2AB73C-F477-4F17-937E-781029687680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6584BC8-34E6-4884-9F08-2D65E15F0EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33585" yWindow="210" windowWidth="32370" windowHeight="20220" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28410" windowHeight="20415" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
         <v>47</v>
       </c>
       <c r="D5" s="3">
-        <v>45048</v>
+        <v>45077</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" t="s">
@@ -658,7 +658,7 @@
         <v>46</v>
       </c>
       <c r="D6" s="3">
-        <v>44961</v>
+        <v>45077</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" t="s">
@@ -671,7 +671,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="3">
-        <v>45014</v>
+        <v>45077</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -724,13 +724,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="3">
-        <v>45075</v>
+        <v>45077</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="3">
-        <v>44947</v>
+        <v>45079</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>36</v>
@@ -772,7 +772,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="3">
-        <v>45041</v>
+        <v>45076</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6584BC8-34E6-4884-9F08-2D65E15F0EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A288D1-9BFB-4EF1-8359-467023BC720C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28410" windowHeight="20415" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="26565" yWindow="0" windowWidth="25125" windowHeight="20985" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42384B1-3750-4D72-9C5D-79E74248529A}">
   <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -772,7 +772,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="3">
-        <v>45076</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
@@ -794,7 +794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
@@ -804,11 +804,14 @@
       <c r="F17" t="s">
         <v>39</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="3">
+        <v>45095</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>40</v>
       </c>
@@ -825,7 +828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>42</v>
       </c>
@@ -836,7 +839,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
@@ -850,7 +853,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F21" t="s">
         <v>35</v>
       </c>
@@ -888,8 +891,9 @@
     <hyperlink ref="F3" r:id="rId29" xr:uid="{7461AF2B-1114-4E32-AB2C-C6FAFC7D3A58}"/>
     <hyperlink ref="C6" r:id="rId30" xr:uid="{2C353417-9F4E-40AB-B114-1CBC57D488C4}"/>
     <hyperlink ref="F12" r:id="rId31" xr:uid="{48D24448-8336-4F85-A615-1301297E8AB2}"/>
+    <hyperlink ref="I17" r:id="rId32" xr:uid="{B734B13E-ABA2-4947-A17D-61A56EEED260}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId32"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId33"/>
 </worksheet>
 </file>
--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A288D1-9BFB-4EF1-8359-467023BC720C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA310D94-62A8-48FA-9D9E-5A32F73896E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26565" yWindow="0" windowWidth="25125" windowHeight="20985" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-29925" yWindow="765" windowWidth="27075" windowHeight="19080" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Healthcare</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>Gastroenterology</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Web</t>
   </si>
 </sst>
 </file>
@@ -564,7 +570,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -664,7 +670,12 @@
       <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="3">
+        <v>45158</v>
+      </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
@@ -733,10 +744,10 @@
         <v>45079</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J11" s="3">
-        <v>44955</v>
+        <v>45156</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
@@ -752,8 +763,11 @@
       <c r="G12" s="3">
         <v>45067</v>
       </c>
-      <c r="I12" t="s">
-        <v>45</v>
+      <c r="I12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="3">
+        <v>44955</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
@@ -763,21 +777,21 @@
       <c r="F13" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>19</v>
+      <c r="I13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="3">
-        <v>45095</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I15" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="J15" s="3">
+        <v>45156</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
@@ -791,7 +805,7 @@
         <v>34</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
@@ -805,10 +819,7 @@
         <v>39</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="3">
-        <v>45095</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
@@ -825,7 +836,10 @@
         <v>45040</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="J18" s="3">
+        <v>45095</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
@@ -833,10 +847,13 @@
         <v>42</v>
       </c>
       <c r="C19" s="3">
-        <v>44954</v>
+        <v>45156</v>
       </c>
       <c r="F19" t="s">
         <v>41</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
@@ -850,7 +867,7 @@
         <v>38</v>
       </c>
       <c r="G20" s="3">
-        <v>45040</v>
+        <v>45157</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
@@ -875,14 +892,14 @@
     <hyperlink ref="B4" r:id="rId13" xr:uid="{8948FD7E-0C11-4C65-9F65-A8131ECB1883}"/>
     <hyperlink ref="C3" r:id="rId14" xr:uid="{5BD33B80-85A5-495B-8D10-F6024818A7EA}"/>
     <hyperlink ref="B16" r:id="rId15" display="Computational Chemistry" xr:uid="{00DB20DF-95BE-4ACB-833E-78679B1DEBE4}"/>
-    <hyperlink ref="I13" r:id="rId16" xr:uid="{B5350D8F-E15C-4D97-AFF4-87976D01709F}"/>
-    <hyperlink ref="I16" r:id="rId17" xr:uid="{A4E89726-D06D-4F39-9FDF-8E6FF757E15B}"/>
-    <hyperlink ref="I18" r:id="rId18" xr:uid="{E240AB7D-EB2A-4C47-ACE3-6DC4E97E10C6}"/>
-    <hyperlink ref="I15" r:id="rId19" xr:uid="{03928271-2931-4899-87B7-284D280588C6}"/>
+    <hyperlink ref="I14" r:id="rId16" xr:uid="{B5350D8F-E15C-4D97-AFF4-87976D01709F}"/>
+    <hyperlink ref="I17" r:id="rId17" xr:uid="{A4E89726-D06D-4F39-9FDF-8E6FF757E15B}"/>
+    <hyperlink ref="I19" r:id="rId18" xr:uid="{E240AB7D-EB2A-4C47-ACE3-6DC4E97E10C6}"/>
+    <hyperlink ref="I16" r:id="rId19" xr:uid="{03928271-2931-4899-87B7-284D280588C6}"/>
     <hyperlink ref="B17" r:id="rId20" xr:uid="{F9503C01-C6D8-4507-B1D8-228E2A2FFAAD}"/>
-    <hyperlink ref="I11" r:id="rId21" xr:uid="{A65108F0-2E05-4701-9FD5-ECB4643B538C}"/>
+    <hyperlink ref="I12" r:id="rId21" xr:uid="{A65108F0-2E05-4701-9FD5-ECB4643B538C}"/>
     <hyperlink ref="F11" r:id="rId22" xr:uid="{80621359-2F8B-4A5B-BC6A-2FB82EA4769B}"/>
-    <hyperlink ref="I14" r:id="rId23" xr:uid="{CD87D806-2453-46D8-B81F-88E0AF410576}"/>
+    <hyperlink ref="I15" r:id="rId23" xr:uid="{CD87D806-2453-46D8-B81F-88E0AF410576}"/>
     <hyperlink ref="F20" r:id="rId24" xr:uid="{A3E39291-0AD8-4434-9956-506F6456A6EF}"/>
     <hyperlink ref="F18" r:id="rId25" xr:uid="{3E303140-6F63-43CA-A742-BF4F34C477BF}"/>
     <hyperlink ref="B18" r:id="rId26" xr:uid="{6113C533-6134-4D6E-B70B-33E844D3E20D}"/>
@@ -891,9 +908,11 @@
     <hyperlink ref="F3" r:id="rId29" xr:uid="{7461AF2B-1114-4E32-AB2C-C6FAFC7D3A58}"/>
     <hyperlink ref="C6" r:id="rId30" xr:uid="{2C353417-9F4E-40AB-B114-1CBC57D488C4}"/>
     <hyperlink ref="F12" r:id="rId31" xr:uid="{48D24448-8336-4F85-A615-1301297E8AB2}"/>
-    <hyperlink ref="I17" r:id="rId32" xr:uid="{B734B13E-ABA2-4947-A17D-61A56EEED260}"/>
+    <hyperlink ref="I18" r:id="rId32" xr:uid="{B734B13E-ABA2-4947-A17D-61A56EEED260}"/>
+    <hyperlink ref="I11" r:id="rId33" xr:uid="{153B455A-C061-4AA8-928A-EEA0E41E6023}"/>
+    <hyperlink ref="I6" r:id="rId34" xr:uid="{82AAD8AA-25D4-4169-92B7-9ED20F2227BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId33"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId35"/>
 </worksheet>
 </file>
--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA310D94-62A8-48FA-9D9E-5A32F73896E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1067A456-0339-3445-BECA-7D8E41379329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29925" yWindow="765" windowWidth="27075" windowHeight="19080" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="2020" yWindow="-17940" windowWidth="27260" windowHeight="15120" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -271,9 +271,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -311,7 +311,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -417,7 +417,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -559,7 +559,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -570,27 +570,27 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="1.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="1.5" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="26.5" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -601,7 +601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -609,7 +609,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3">
-        <v>45004</v>
+        <v>45580</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>22</v>
@@ -624,7 +624,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -641,7 +641,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -649,7 +649,7 @@
         <v>47</v>
       </c>
       <c r="D5" s="3">
-        <v>45077</v>
+        <v>45580</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" t="s">
@@ -659,7 +659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C6" s="2" t="s">
         <v>46</v>
       </c>
@@ -677,7 +677,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -688,7 +688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -699,7 +699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -710,7 +710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -730,7 +730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
@@ -750,7 +750,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
@@ -770,7 +770,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>37</v>
       </c>
@@ -781,12 +781,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="I14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="I15" s="2" t="s">
         <v>20</v>
       </c>
@@ -794,7 +794,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
@@ -808,7 +808,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
@@ -822,7 +822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
         <v>40</v>
       </c>
@@ -842,7 +842,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>42</v>
       </c>
@@ -856,7 +856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
@@ -870,7 +870,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="F21" t="s">
         <v>35</v>
       </c>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1067A456-0339-3445-BECA-7D8E41379329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D72AB88-C4C3-4CD5-8DD8-E3078C8FFD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="-17940" windowWidth="27260" windowHeight="15120" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="11250" yWindow="4360" windowWidth="26500" windowHeight="15380" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -570,27 +570,27 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="1.5" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" customWidth="1"/>
+    <col min="5" max="5" width="1.453125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" customWidth="1"/>
-    <col min="9" max="9" width="26.5" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -601,7 +601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -624,7 +624,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -641,7 +641,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -659,12 +659,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="3">
-        <v>45077</v>
+        <v>45580</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" t="s">
@@ -677,18 +677,18 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="3">
-        <v>45077</v>
+        <v>45580</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -699,18 +699,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>44964</v>
+        <v>45581</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -730,7 +730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
@@ -750,12 +750,12 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="3">
-        <v>45008</v>
+        <v>45581</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>30</v>
@@ -770,7 +770,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>37</v>
       </c>
@@ -781,12 +781,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I15" s="2" t="s">
         <v>20</v>
       </c>
@@ -794,7 +794,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
@@ -808,7 +808,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
@@ -822,7 +822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>40</v>
       </c>
@@ -842,7 +842,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>42</v>
       </c>
@@ -856,7 +856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
@@ -870,7 +870,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>35</v>
       </c>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D72AB88-C4C3-4CD5-8DD8-E3078C8FFD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0508F15A-1B3B-422C-85C6-A233DC017B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11250" yWindow="4360" windowWidth="26500" windowHeight="15380" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Healthcare</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Web</t>
+  </si>
+  <si>
+    <t>Energy</t>
   </si>
 </sst>
 </file>
@@ -245,11 +248,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -567,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42384B1-3750-4D72-9C5D-79E74248529A}">
-  <dimension ref="B1:J21"/>
+  <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -612,10 +619,7 @@
         <v>45580</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="3">
-        <v>44955</v>
+        <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>0</v>
@@ -631,8 +635,11 @@
       <c r="D4" s="3">
         <v>44955</v>
       </c>
-      <c r="F4" t="s">
-        <v>28</v>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3">
+        <v>44955</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>13</v>
@@ -653,7 +660,7 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>4</v>
@@ -668,7 +675,7 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>50</v>
@@ -685,7 +692,7 @@
         <v>45580</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -693,10 +700,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="3">
-        <v>45011</v>
+        <v>45581</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -707,171 +714,179 @@
         <v>45581</v>
       </c>
       <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45581</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>45581</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3">
-        <v>45075</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="I11" s="7" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="3">
-        <v>45077</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="3">
-        <v>45079</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="3">
-        <v>45156</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D12" s="3">
         <v>45581</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="3">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3">
+        <v>45581</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="3">
+        <v>45079</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="3">
+        <v>44955</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G14" s="3">
         <v>45067</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="3">
-        <v>44955</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
         <v>27</v>
       </c>
-      <c r="I13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I14" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I15" s="2" t="s">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J16" s="3">
         <v>45156</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
+    <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C17" s="3">
         <v>44973</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3">
-        <v>44943</v>
-      </c>
-      <c r="F17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3">
-        <v>45001</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="3">
-        <v>45040</v>
+        <v>44943</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="3">
-        <v>45095</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="3">
-        <v>45156</v>
-      </c>
-      <c r="F19" t="s">
-        <v>41</v>
+        <v>45001</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="3">
+        <v>45040</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="J19" s="3">
+        <v>45095</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45156</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
         <v>44989</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G21" s="3">
         <v>45157</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F21" t="s">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -884,35 +899,37 @@
     <hyperlink ref="I3" r:id="rId5" xr:uid="{2B65303F-578F-447C-BA7D-79EFD53A27E3}"/>
     <hyperlink ref="I4" r:id="rId6" xr:uid="{2703CFA8-6F7B-4B1D-AB1F-22E8516323C5}"/>
     <hyperlink ref="I5" r:id="rId7" xr:uid="{3D8CF38A-629A-428F-95F8-29802EA7365F}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{1DCFCDF4-EFB4-495D-8529-6916F8E3FAF9}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{7391B2CC-0ADA-4E8B-94E2-02F6C460E04D}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{709BE174-354B-414C-9E0C-0CB26CB17087}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{1DCFCDF4-EFB4-495D-8529-6916F8E3FAF9}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{7391B2CC-0ADA-4E8B-94E2-02F6C460E04D}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{709BE174-354B-414C-9E0C-0CB26CB17087}"/>
     <hyperlink ref="B3" r:id="rId11" xr:uid="{24A2749C-99B8-4990-BB16-473551B4C3C9}"/>
-    <hyperlink ref="G10" r:id="rId12" xr:uid="{7C002F4D-FA82-46DF-88D0-F20531EFA3F8}"/>
+    <hyperlink ref="F3" r:id="rId12" xr:uid="{7C002F4D-FA82-46DF-88D0-F20531EFA3F8}"/>
     <hyperlink ref="B4" r:id="rId13" xr:uid="{8948FD7E-0C11-4C65-9F65-A8131ECB1883}"/>
     <hyperlink ref="C3" r:id="rId14" xr:uid="{5BD33B80-85A5-495B-8D10-F6024818A7EA}"/>
-    <hyperlink ref="B16" r:id="rId15" display="Computational Chemistry" xr:uid="{00DB20DF-95BE-4ACB-833E-78679B1DEBE4}"/>
-    <hyperlink ref="I14" r:id="rId16" xr:uid="{B5350D8F-E15C-4D97-AFF4-87976D01709F}"/>
-    <hyperlink ref="I17" r:id="rId17" xr:uid="{A4E89726-D06D-4F39-9FDF-8E6FF757E15B}"/>
-    <hyperlink ref="I19" r:id="rId18" xr:uid="{E240AB7D-EB2A-4C47-ACE3-6DC4E97E10C6}"/>
-    <hyperlink ref="I16" r:id="rId19" xr:uid="{03928271-2931-4899-87B7-284D280588C6}"/>
-    <hyperlink ref="B17" r:id="rId20" xr:uid="{F9503C01-C6D8-4507-B1D8-228E2A2FFAAD}"/>
-    <hyperlink ref="I12" r:id="rId21" xr:uid="{A65108F0-2E05-4701-9FD5-ECB4643B538C}"/>
-    <hyperlink ref="F11" r:id="rId22" xr:uid="{80621359-2F8B-4A5B-BC6A-2FB82EA4769B}"/>
-    <hyperlink ref="I15" r:id="rId23" xr:uid="{CD87D806-2453-46D8-B81F-88E0AF410576}"/>
-    <hyperlink ref="F20" r:id="rId24" xr:uid="{A3E39291-0AD8-4434-9956-506F6456A6EF}"/>
-    <hyperlink ref="F18" r:id="rId25" xr:uid="{3E303140-6F63-43CA-A742-BF4F34C477BF}"/>
-    <hyperlink ref="B18" r:id="rId26" xr:uid="{6113C533-6134-4D6E-B70B-33E844D3E20D}"/>
-    <hyperlink ref="B19" r:id="rId27" xr:uid="{94B54C11-D57C-4517-801E-20549E100878}"/>
-    <hyperlink ref="B20" r:id="rId28" xr:uid="{548404B7-486D-4DC1-8702-5308F6B726F9}"/>
-    <hyperlink ref="F3" r:id="rId29" xr:uid="{7461AF2B-1114-4E32-AB2C-C6FAFC7D3A58}"/>
+    <hyperlink ref="B17" r:id="rId15" display="Computational Chemistry" xr:uid="{00DB20DF-95BE-4ACB-833E-78679B1DEBE4}"/>
+    <hyperlink ref="I15" r:id="rId16" xr:uid="{B5350D8F-E15C-4D97-AFF4-87976D01709F}"/>
+    <hyperlink ref="I18" r:id="rId17" xr:uid="{A4E89726-D06D-4F39-9FDF-8E6FF757E15B}"/>
+    <hyperlink ref="I20" r:id="rId18" xr:uid="{E240AB7D-EB2A-4C47-ACE3-6DC4E97E10C6}"/>
+    <hyperlink ref="I17" r:id="rId19" xr:uid="{03928271-2931-4899-87B7-284D280588C6}"/>
+    <hyperlink ref="B18" r:id="rId20" xr:uid="{F9503C01-C6D8-4507-B1D8-228E2A2FFAAD}"/>
+    <hyperlink ref="I13" r:id="rId21" xr:uid="{A65108F0-2E05-4701-9FD5-ECB4643B538C}"/>
+    <hyperlink ref="F13" r:id="rId22" xr:uid="{80621359-2F8B-4A5B-BC6A-2FB82EA4769B}"/>
+    <hyperlink ref="I16" r:id="rId23" xr:uid="{CD87D806-2453-46D8-B81F-88E0AF410576}"/>
+    <hyperlink ref="F21" r:id="rId24" xr:uid="{A3E39291-0AD8-4434-9956-506F6456A6EF}"/>
+    <hyperlink ref="F19" r:id="rId25" xr:uid="{3E303140-6F63-43CA-A742-BF4F34C477BF}"/>
+    <hyperlink ref="B19" r:id="rId26" xr:uid="{6113C533-6134-4D6E-B70B-33E844D3E20D}"/>
+    <hyperlink ref="B20" r:id="rId27" xr:uid="{94B54C11-D57C-4517-801E-20549E100878}"/>
+    <hyperlink ref="B21" r:id="rId28" xr:uid="{548404B7-486D-4DC1-8702-5308F6B726F9}"/>
+    <hyperlink ref="F4" r:id="rId29" xr:uid="{7461AF2B-1114-4E32-AB2C-C6FAFC7D3A58}"/>
     <hyperlink ref="C6" r:id="rId30" xr:uid="{2C353417-9F4E-40AB-B114-1CBC57D488C4}"/>
-    <hyperlink ref="F12" r:id="rId31" xr:uid="{48D24448-8336-4F85-A615-1301297E8AB2}"/>
-    <hyperlink ref="I18" r:id="rId32" xr:uid="{B734B13E-ABA2-4947-A17D-61A56EEED260}"/>
-    <hyperlink ref="I11" r:id="rId33" xr:uid="{153B455A-C061-4AA8-928A-EEA0E41E6023}"/>
+    <hyperlink ref="F14" r:id="rId31" xr:uid="{48D24448-8336-4F85-A615-1301297E8AB2}"/>
+    <hyperlink ref="I19" r:id="rId32" xr:uid="{B734B13E-ABA2-4947-A17D-61A56EEED260}"/>
+    <hyperlink ref="I12" r:id="rId33" xr:uid="{153B455A-C061-4AA8-928A-EEA0E41E6023}"/>
     <hyperlink ref="I6" r:id="rId34" xr:uid="{82AAD8AA-25D4-4169-92B7-9ED20F2227BC}"/>
+    <hyperlink ref="F12" r:id="rId35" xr:uid="{04269E00-6C8E-43B0-AEAA-6E9875BD4BB1}"/>
+    <hyperlink ref="B10" r:id="rId36" xr:uid="{9F42216A-D0D1-49BF-A668-FAA4E57ACAFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId35"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId37"/>
 </worksheet>
 </file>
--- a/Master.xlsx
+++ b/Master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0508F15A-1B3B-422C-85C6-A233DC017B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5EFC57-8E1F-427F-BCBE-DF18E2ECAAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11250" yWindow="4360" windowWidth="26500" windowHeight="15380" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-31515" yWindow="1515" windowWidth="19845" windowHeight="16215" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Healthcare</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>Card Games (Non-Poker)</t>
-  </si>
-  <si>
-    <t>Godel</t>
   </si>
   <si>
     <t>Games (Combinatorial)</t>
@@ -248,15 +245,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -577,27 +571,27 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" customWidth="1"/>
-    <col min="5" max="5" width="1.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="1.42578125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
-    <col min="9" max="9" width="26.453125" customWidth="1"/>
-    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -608,7 +602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -628,7 +622,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -648,12 +642,12 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3">
         <v>45580</v>
@@ -666,25 +660,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="3">
         <v>45580</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J6" s="3">
         <v>45158</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -694,8 +688,14 @@
       <c r="F7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="3">
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -706,7 +706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -717,32 +717,32 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>51</v>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="D10" s="3">
         <v>45581</v>
       </c>
     </row>
-    <row r="11" spans="2:10" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>45581</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
@@ -753,13 +753,13 @@
         <v>29</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12" s="3">
         <v>45156</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
@@ -779,7 +779,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -790,10 +790,10 @@
         <v>45067</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F15" t="s">
         <v>27</v>
       </c>
@@ -801,7 +801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
@@ -809,9 +809,9 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3">
         <v>44973</v>
@@ -823,7 +823,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
@@ -837,12 +837,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3">
-        <v>45001</v>
+        <v>45582</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>32</v>
@@ -857,27 +857,21 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="3">
-        <v>45156</v>
+        <v>44989</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="3">
-        <v>44989</v>
-      </c>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F21" s="2" t="s">
         <v>38</v>
       </c>
@@ -885,7 +879,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
         <v>35</v>
       </c>
@@ -917,17 +911,17 @@
     <hyperlink ref="I16" r:id="rId23" xr:uid="{CD87D806-2453-46D8-B81F-88E0AF410576}"/>
     <hyperlink ref="F21" r:id="rId24" xr:uid="{A3E39291-0AD8-4434-9956-506F6456A6EF}"/>
     <hyperlink ref="F19" r:id="rId25" xr:uid="{3E303140-6F63-43CA-A742-BF4F34C477BF}"/>
-    <hyperlink ref="B19" r:id="rId26" xr:uid="{6113C533-6134-4D6E-B70B-33E844D3E20D}"/>
-    <hyperlink ref="B20" r:id="rId27" xr:uid="{94B54C11-D57C-4517-801E-20549E100878}"/>
-    <hyperlink ref="B21" r:id="rId28" xr:uid="{548404B7-486D-4DC1-8702-5308F6B726F9}"/>
-    <hyperlink ref="F4" r:id="rId29" xr:uid="{7461AF2B-1114-4E32-AB2C-C6FAFC7D3A58}"/>
-    <hyperlink ref="C6" r:id="rId30" xr:uid="{2C353417-9F4E-40AB-B114-1CBC57D488C4}"/>
-    <hyperlink ref="F14" r:id="rId31" xr:uid="{48D24448-8336-4F85-A615-1301297E8AB2}"/>
-    <hyperlink ref="I19" r:id="rId32" xr:uid="{B734B13E-ABA2-4947-A17D-61A56EEED260}"/>
-    <hyperlink ref="I12" r:id="rId33" xr:uid="{153B455A-C061-4AA8-928A-EEA0E41E6023}"/>
-    <hyperlink ref="I6" r:id="rId34" xr:uid="{82AAD8AA-25D4-4169-92B7-9ED20F2227BC}"/>
-    <hyperlink ref="F12" r:id="rId35" xr:uid="{04269E00-6C8E-43B0-AEAA-6E9875BD4BB1}"/>
-    <hyperlink ref="B10" r:id="rId36" xr:uid="{9F42216A-D0D1-49BF-A668-FAA4E57ACAFD}"/>
+    <hyperlink ref="B19" r:id="rId26" xr:uid="{94B54C11-D57C-4517-801E-20549E100878}"/>
+    <hyperlink ref="B20" r:id="rId27" xr:uid="{548404B7-486D-4DC1-8702-5308F6B726F9}"/>
+    <hyperlink ref="F4" r:id="rId28" xr:uid="{7461AF2B-1114-4E32-AB2C-C6FAFC7D3A58}"/>
+    <hyperlink ref="C6" r:id="rId29" xr:uid="{2C353417-9F4E-40AB-B114-1CBC57D488C4}"/>
+    <hyperlink ref="F14" r:id="rId30" xr:uid="{48D24448-8336-4F85-A615-1301297E8AB2}"/>
+    <hyperlink ref="I19" r:id="rId31" xr:uid="{B734B13E-ABA2-4947-A17D-61A56EEED260}"/>
+    <hyperlink ref="I12" r:id="rId32" xr:uid="{153B455A-C061-4AA8-928A-EEA0E41E6023}"/>
+    <hyperlink ref="I6" r:id="rId33" xr:uid="{82AAD8AA-25D4-4169-92B7-9ED20F2227BC}"/>
+    <hyperlink ref="F12" r:id="rId34" xr:uid="{04269E00-6C8E-43B0-AEAA-6E9875BD4BB1}"/>
+    <hyperlink ref="B10" r:id="rId35" xr:uid="{9F42216A-D0D1-49BF-A668-FAA4E57ACAFD}"/>
+    <hyperlink ref="I7" r:id="rId36" xr:uid="{CC760BE0-2C33-49BC-866B-392B855548FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId37"/>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5EFC57-8E1F-427F-BCBE-DF18E2ECAAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355B3D3A-073D-4A75-ACC9-C49A73E01921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31515" yWindow="1515" windowWidth="19845" windowHeight="16215" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-70" yWindow="550" windowWidth="19120" windowHeight="19600" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -571,27 +571,27 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" customWidth="1"/>
+    <col min="5" max="5" width="1.453125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -602,7 +602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -622,12 +622,12 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3">
-        <v>44955</v>
+        <v>45586</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>22</v>
@@ -642,7 +642,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -660,7 +660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
@@ -678,7 +678,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -695,7 +695,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -706,7 +706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
@@ -725,7 +725,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -742,7 +742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
@@ -759,7 +759,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
@@ -779,7 +779,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -793,7 +793,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>27</v>
       </c>
@@ -801,7 +801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
@@ -809,7 +809,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>43</v>
       </c>
@@ -823,7 +823,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
@@ -837,7 +837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
@@ -857,7 +857,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
@@ -871,7 +871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F21" s="2" t="s">
         <v>38</v>
       </c>
@@ -879,7 +879,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>35</v>
       </c>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355B3D3A-073D-4A75-ACC9-C49A73E01921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D86D45B-050A-4290-BA41-F114FF3A25F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-70" yWindow="550" windowWidth="19120" windowHeight="19600" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-51555" yWindow="1095" windowWidth="21720" windowHeight="19635" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Healthcare</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Energy</t>
+  </si>
+  <si>
+    <t>Immunology</t>
   </si>
 </sst>
 </file>
@@ -571,27 +574,27 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" customWidth="1"/>
-    <col min="5" max="5" width="1.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="1.42578125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
-    <col min="9" max="9" width="26.453125" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -602,7 +605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -622,7 +625,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -642,7 +645,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -660,7 +663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
@@ -678,7 +681,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -695,7 +698,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -706,7 +709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -717,15 +720,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="3">
         <v>45581</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="F10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="3">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -742,7 +751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
@@ -759,7 +768,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
@@ -779,9 +788,12 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="D14" s="3">
+        <v>45591</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>30</v>
@@ -793,7 +805,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F15" t="s">
         <v>27</v>
       </c>
@@ -801,7 +813,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
@@ -809,7 +821,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>43</v>
       </c>
@@ -823,7 +835,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
@@ -837,7 +849,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
@@ -857,7 +869,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
@@ -871,7 +883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F21" s="2" t="s">
         <v>38</v>
       </c>
@@ -879,7 +891,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
         <v>35</v>
       </c>
@@ -922,8 +934,10 @@
     <hyperlink ref="F12" r:id="rId34" xr:uid="{04269E00-6C8E-43B0-AEAA-6E9875BD4BB1}"/>
     <hyperlink ref="B10" r:id="rId35" xr:uid="{9F42216A-D0D1-49BF-A668-FAA4E57ACAFD}"/>
     <hyperlink ref="I7" r:id="rId36" xr:uid="{CC760BE0-2C33-49BC-866B-392B855548FE}"/>
+    <hyperlink ref="B14" r:id="rId37" xr:uid="{D1C3BC07-4E48-4FE6-9B08-2FF79CC92C96}"/>
+    <hyperlink ref="F10" r:id="rId38" xr:uid="{145E9CFF-8EF8-4BAF-B794-51479F59948C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId37"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId39"/>
 </worksheet>
 </file>
--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D86D45B-050A-4290-BA41-F114FF3A25F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F02CF1-4CE1-4311-9278-072069B18BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51555" yWindow="1095" windowWidth="21720" windowHeight="19635" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-22635" yWindow="2400" windowWidth="22335" windowHeight="14880" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -618,6 +618,9 @@
       <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="G3" s="3">
+        <v>45607</v>
+      </c>
       <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
@@ -653,7 +656,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="3">
-        <v>45580</v>
+        <v>45602</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" t="s">
@@ -742,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="3">
-        <v>45581</v>
+        <v>45602</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F02CF1-4CE1-4311-9278-072069B18BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C342A714-8EE9-4D08-B75C-B964762307A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22635" yWindow="2400" windowWidth="22335" windowHeight="14880" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-26820" yWindow="780" windowWidth="26220" windowHeight="14910" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -613,7 +613,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3">
-        <v>45580</v>
+        <v>45608</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C342A714-8EE9-4D08-B75C-B964762307A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54F810D-9EDA-4292-99E5-7E491B15BA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26820" yWindow="780" windowWidth="26220" windowHeight="14910" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-23535" yWindow="1920" windowWidth="19875" windowHeight="15960" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -656,7 +656,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="3">
-        <v>45602</v>
+        <v>45618</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" t="s">

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54F810D-9EDA-4292-99E5-7E491B15BA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FF7E93-C6E3-44C4-B9F8-4320EA5AC075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23535" yWindow="1920" windowWidth="19875" windowHeight="15960" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-26190" yWindow="2175" windowWidth="25215" windowHeight="16575" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -613,7 +613,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3">
-        <v>45608</v>
+        <v>45635</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
@@ -706,7 +706,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="3">
-        <v>45581</v>
+        <v>45635</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -745,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="3">
-        <v>45602</v>
+        <v>45635</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -759,7 +759,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="3">
-        <v>45581</v>
+        <v>45635</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>29</v>
@@ -857,7 +857,7 @@
         <v>41</v>
       </c>
       <c r="C19" s="3">
-        <v>45582</v>
+        <v>45635</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>32</v>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FF7E93-C6E3-44C4-B9F8-4320EA5AC075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC75FE1C-058C-4B99-9D2B-123D24993FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26190" yWindow="2175" windowWidth="25215" windowHeight="16575" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-19005" yWindow="1530" windowWidth="18960" windowHeight="18495" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -745,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="3">
-        <v>45635</v>
+        <v>45652</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC75FE1C-058C-4B99-9D2B-123D24993FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1CA7E5-0A84-42EA-8707-D9A717B1C4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19005" yWindow="1530" windowWidth="18960" windowHeight="18495" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-28410" yWindow="1200" windowWidth="25080" windowHeight="18540" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Healthcare</t>
   </si>
@@ -192,13 +192,22 @@
   </si>
   <si>
     <t>Immunology</t>
+  </si>
+  <si>
+    <t>Recommendations</t>
+  </si>
+  <si>
+    <t>Proteins</t>
+  </si>
+  <si>
+    <t>Autoimmune</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -226,6 +235,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -248,12 +262,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -571,23 +586,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42384B1-3750-4D72-9C5D-79E74248529A}">
-  <dimension ref="B1:J22"/>
+  <dimension ref="B1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
     <col min="5" max="5" width="1.42578125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -635,11 +650,11 @@
       <c r="D4" s="3">
         <v>45586</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
+      <c r="F4" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="G4" s="3">
-        <v>44955</v>
+        <v>45657</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>13</v>
@@ -656,11 +671,14 @@
         <v>46</v>
       </c>
       <c r="D5" s="3">
-        <v>45618</v>
+        <v>45659</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" t="s">
-        <v>28</v>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3">
+        <v>44955</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>4</v>
@@ -675,7 +693,7 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>49</v>
@@ -692,7 +710,7 @@
         <v>45580</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>46</v>
@@ -709,7 +727,7 @@
         <v>45635</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -717,10 +735,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>45581</v>
+        <v>45659</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
@@ -730,11 +748,8 @@
       <c r="D10" s="3">
         <v>45581</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="3">
-        <v>45590</v>
+      <c r="F10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
@@ -747,8 +762,11 @@
       <c r="D11" s="3">
         <v>45652</v>
       </c>
-      <c r="F11" t="s">
-        <v>24</v>
+      <c r="F11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="3">
+        <v>45590</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>16</v>
@@ -759,10 +777,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="3">
-        <v>45635</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>29</v>
+        <v>45656</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>48</v>
@@ -779,10 +797,7 @@
         <v>45581</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="3">
-        <v>45079</v>
+        <v>29</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>36</v>
@@ -799,24 +814,33 @@
         <v>45591</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G14" s="3">
-        <v>45067</v>
+        <v>45079</v>
       </c>
       <c r="I14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F15" t="s">
-        <v>27</v>
+      <c r="F15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="3">
+        <v>45067</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="J15" s="3">
+        <v>45657</v>
+      </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
@@ -831,11 +855,11 @@
       <c r="C17" s="3">
         <v>44973</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I17" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="J17" s="3">
+        <v>45657</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
@@ -845,8 +869,8 @@
       <c r="C18" s="3">
         <v>44943</v>
       </c>
-      <c r="F18" t="s">
-        <v>39</v>
+      <c r="F18" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>17</v>
@@ -859,11 +883,8 @@
       <c r="C19" s="3">
         <v>45635</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="3">
-        <v>45040</v>
+      <c r="F19" t="s">
+        <v>39</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>21</v>
@@ -879,23 +900,43 @@
       <c r="C20" s="3">
         <v>44989</v>
       </c>
-      <c r="F20" t="s">
-        <v>40</v>
+      <c r="F20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="3">
+        <v>45040</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F21" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="3">
+        <v>45653</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="3">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G22" s="3">
         <v>45157</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F22" t="s">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
         <v>35</v>
       </c>
     </row>
@@ -922,25 +963,27 @@
     <hyperlink ref="I17" r:id="rId19" xr:uid="{03928271-2931-4899-87B7-284D280588C6}"/>
     <hyperlink ref="B18" r:id="rId20" xr:uid="{F9503C01-C6D8-4507-B1D8-228E2A2FFAAD}"/>
     <hyperlink ref="I13" r:id="rId21" xr:uid="{A65108F0-2E05-4701-9FD5-ECB4643B538C}"/>
-    <hyperlink ref="F13" r:id="rId22" xr:uid="{80621359-2F8B-4A5B-BC6A-2FB82EA4769B}"/>
+    <hyperlink ref="F14" r:id="rId22" xr:uid="{80621359-2F8B-4A5B-BC6A-2FB82EA4769B}"/>
     <hyperlink ref="I16" r:id="rId23" xr:uid="{CD87D806-2453-46D8-B81F-88E0AF410576}"/>
-    <hyperlink ref="F21" r:id="rId24" xr:uid="{A3E39291-0AD8-4434-9956-506F6456A6EF}"/>
-    <hyperlink ref="F19" r:id="rId25" xr:uid="{3E303140-6F63-43CA-A742-BF4F34C477BF}"/>
+    <hyperlink ref="F22" r:id="rId24" xr:uid="{A3E39291-0AD8-4434-9956-506F6456A6EF}"/>
+    <hyperlink ref="F20" r:id="rId25" xr:uid="{3E303140-6F63-43CA-A742-BF4F34C477BF}"/>
     <hyperlink ref="B19" r:id="rId26" xr:uid="{94B54C11-D57C-4517-801E-20549E100878}"/>
     <hyperlink ref="B20" r:id="rId27" xr:uid="{548404B7-486D-4DC1-8702-5308F6B726F9}"/>
-    <hyperlink ref="F4" r:id="rId28" xr:uid="{7461AF2B-1114-4E32-AB2C-C6FAFC7D3A58}"/>
+    <hyperlink ref="F5" r:id="rId28" xr:uid="{7461AF2B-1114-4E32-AB2C-C6FAFC7D3A58}"/>
     <hyperlink ref="C6" r:id="rId29" xr:uid="{2C353417-9F4E-40AB-B114-1CBC57D488C4}"/>
-    <hyperlink ref="F14" r:id="rId30" xr:uid="{48D24448-8336-4F85-A615-1301297E8AB2}"/>
+    <hyperlink ref="F15" r:id="rId30" xr:uid="{48D24448-8336-4F85-A615-1301297E8AB2}"/>
     <hyperlink ref="I19" r:id="rId31" xr:uid="{B734B13E-ABA2-4947-A17D-61A56EEED260}"/>
     <hyperlink ref="I12" r:id="rId32" xr:uid="{153B455A-C061-4AA8-928A-EEA0E41E6023}"/>
     <hyperlink ref="I6" r:id="rId33" xr:uid="{82AAD8AA-25D4-4169-92B7-9ED20F2227BC}"/>
-    <hyperlink ref="F12" r:id="rId34" xr:uid="{04269E00-6C8E-43B0-AEAA-6E9875BD4BB1}"/>
+    <hyperlink ref="F13" r:id="rId34" xr:uid="{04269E00-6C8E-43B0-AEAA-6E9875BD4BB1}"/>
     <hyperlink ref="B10" r:id="rId35" xr:uid="{9F42216A-D0D1-49BF-A668-FAA4E57ACAFD}"/>
     <hyperlink ref="I7" r:id="rId36" xr:uid="{CC760BE0-2C33-49BC-866B-392B855548FE}"/>
     <hyperlink ref="B14" r:id="rId37" xr:uid="{D1C3BC07-4E48-4FE6-9B08-2FF79CC92C96}"/>
-    <hyperlink ref="F10" r:id="rId38" xr:uid="{145E9CFF-8EF8-4BAF-B794-51479F59948C}"/>
+    <hyperlink ref="F11" r:id="rId38" xr:uid="{145E9CFF-8EF8-4BAF-B794-51479F59948C}"/>
+    <hyperlink ref="B21" r:id="rId39" xr:uid="{4B2F483A-CC17-455C-A077-339776B7B188}"/>
+    <hyperlink ref="I21" r:id="rId40" xr:uid="{4605C416-EB83-46E2-BC02-38491D81884F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId39"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId41"/>
 </worksheet>
 </file>
--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1CA7E5-0A84-42EA-8707-D9A717B1C4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20F2B59-32D4-477C-B554-DCC0E215E5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="1200" windowWidth="25080" windowHeight="18540" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-25320" yWindow="855" windowWidth="25080" windowHeight="19755" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>Healthcare</t>
   </si>
@@ -198,16 +198,13 @@
   </si>
   <si>
     <t>Proteins</t>
-  </si>
-  <si>
-    <t>Autoimmune</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -232,11 +229,6 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -268,7 +260,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -586,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42384B1-3750-4D72-9C5D-79E74248529A}">
-  <dimension ref="B1:J23"/>
+  <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -650,11 +642,11 @@
       <c r="D4" s="3">
         <v>45586</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>54</v>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="G4" s="3">
-        <v>45657</v>
+        <v>44955</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>13</v>
@@ -671,15 +663,13 @@
         <v>46</v>
       </c>
       <c r="D5" s="3">
-        <v>45659</v>
+        <v>45668</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="3">
-        <v>44955</v>
-      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="5"/>
       <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
@@ -693,8 +683,9 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" t="s">
-        <v>28</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G6" s="5"/>
       <c r="I6" s="2" t="s">
         <v>49</v>
       </c>
@@ -710,8 +701,9 @@
         <v>45580</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G7" s="5"/>
       <c r="I7" s="2" t="s">
         <v>46</v>
       </c>
@@ -727,8 +719,9 @@
         <v>45635</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
@@ -737,8 +730,11 @@
       <c r="D9" s="3">
         <v>45659</v>
       </c>
-      <c r="F9" t="s">
-        <v>23</v>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45668</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
@@ -748,8 +744,11 @@
       <c r="D10" s="3">
         <v>45581</v>
       </c>
-      <c r="F10" t="s">
-        <v>25</v>
+      <c r="F10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="3">
+        <v>45670</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
@@ -762,12 +761,10 @@
       <c r="D11" s="3">
         <v>45652</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="3">
-        <v>45590</v>
-      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="5"/>
       <c r="I11" s="1" t="s">
         <v>16</v>
       </c>
@@ -779,9 +776,10 @@
       <c r="D12" s="3">
         <v>45656</v>
       </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
+      <c r="F12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="5"/>
       <c r="I12" s="2" t="s">
         <v>48</v>
       </c>
@@ -797,7 +795,10 @@
         <v>45581</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="G13" s="3">
+        <v>45670</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>36</v>
@@ -814,21 +815,18 @@
         <v>45591</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G14" s="3">
-        <v>45079</v>
+        <v>45067</v>
       </c>
       <c r="I14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="3">
-        <v>45067</v>
+      <c r="F15" t="s">
+        <v>27</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>19</v>
@@ -838,9 +836,6 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
@@ -855,6 +850,9 @@
       <c r="C17" s="3">
         <v>44973</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I17" s="2" t="s">
         <v>33</v>
       </c>
@@ -869,8 +867,8 @@
       <c r="C18" s="3">
         <v>44943</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>34</v>
+      <c r="F18" t="s">
+        <v>39</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>17</v>
@@ -883,8 +881,11 @@
       <c r="C19" s="3">
         <v>45635</v>
       </c>
-      <c r="F19" t="s">
-        <v>39</v>
+      <c r="F19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="3">
+        <v>45040</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>21</v>
@@ -900,11 +901,8 @@
       <c r="C20" s="3">
         <v>44989</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="3">
-        <v>45040</v>
+      <c r="F20" t="s">
+        <v>40</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>18</v>
@@ -917,8 +915,11 @@
       <c r="C21" s="3">
         <v>45653</v>
       </c>
-      <c r="F21" t="s">
-        <v>40</v>
+      <c r="F21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="3">
+        <v>45157</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>53</v>
@@ -928,15 +929,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="3">
-        <v>45157</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F23" t="s">
+      <c r="F22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -963,27 +956,28 @@
     <hyperlink ref="I17" r:id="rId19" xr:uid="{03928271-2931-4899-87B7-284D280588C6}"/>
     <hyperlink ref="B18" r:id="rId20" xr:uid="{F9503C01-C6D8-4507-B1D8-228E2A2FFAAD}"/>
     <hyperlink ref="I13" r:id="rId21" xr:uid="{A65108F0-2E05-4701-9FD5-ECB4643B538C}"/>
-    <hyperlink ref="F14" r:id="rId22" xr:uid="{80621359-2F8B-4A5B-BC6A-2FB82EA4769B}"/>
+    <hyperlink ref="F13" r:id="rId22" xr:uid="{80621359-2F8B-4A5B-BC6A-2FB82EA4769B}"/>
     <hyperlink ref="I16" r:id="rId23" xr:uid="{CD87D806-2453-46D8-B81F-88E0AF410576}"/>
-    <hyperlink ref="F22" r:id="rId24" xr:uid="{A3E39291-0AD8-4434-9956-506F6456A6EF}"/>
-    <hyperlink ref="F20" r:id="rId25" xr:uid="{3E303140-6F63-43CA-A742-BF4F34C477BF}"/>
+    <hyperlink ref="F21" r:id="rId24" xr:uid="{A3E39291-0AD8-4434-9956-506F6456A6EF}"/>
+    <hyperlink ref="F19" r:id="rId25" xr:uid="{3E303140-6F63-43CA-A742-BF4F34C477BF}"/>
     <hyperlink ref="B19" r:id="rId26" xr:uid="{94B54C11-D57C-4517-801E-20549E100878}"/>
     <hyperlink ref="B20" r:id="rId27" xr:uid="{548404B7-486D-4DC1-8702-5308F6B726F9}"/>
-    <hyperlink ref="F5" r:id="rId28" xr:uid="{7461AF2B-1114-4E32-AB2C-C6FAFC7D3A58}"/>
+    <hyperlink ref="F4" r:id="rId28" xr:uid="{7461AF2B-1114-4E32-AB2C-C6FAFC7D3A58}"/>
     <hyperlink ref="C6" r:id="rId29" xr:uid="{2C353417-9F4E-40AB-B114-1CBC57D488C4}"/>
-    <hyperlink ref="F15" r:id="rId30" xr:uid="{48D24448-8336-4F85-A615-1301297E8AB2}"/>
+    <hyperlink ref="F14" r:id="rId30" xr:uid="{48D24448-8336-4F85-A615-1301297E8AB2}"/>
     <hyperlink ref="I19" r:id="rId31" xr:uid="{B734B13E-ABA2-4947-A17D-61A56EEED260}"/>
     <hyperlink ref="I12" r:id="rId32" xr:uid="{153B455A-C061-4AA8-928A-EEA0E41E6023}"/>
     <hyperlink ref="I6" r:id="rId33" xr:uid="{82AAD8AA-25D4-4169-92B7-9ED20F2227BC}"/>
-    <hyperlink ref="F13" r:id="rId34" xr:uid="{04269E00-6C8E-43B0-AEAA-6E9875BD4BB1}"/>
+    <hyperlink ref="F12" r:id="rId34" xr:uid="{04269E00-6C8E-43B0-AEAA-6E9875BD4BB1}"/>
     <hyperlink ref="B10" r:id="rId35" xr:uid="{9F42216A-D0D1-49BF-A668-FAA4E57ACAFD}"/>
     <hyperlink ref="I7" r:id="rId36" xr:uid="{CC760BE0-2C33-49BC-866B-392B855548FE}"/>
     <hyperlink ref="B14" r:id="rId37" xr:uid="{D1C3BC07-4E48-4FE6-9B08-2FF79CC92C96}"/>
-    <hyperlink ref="F11" r:id="rId38" xr:uid="{145E9CFF-8EF8-4BAF-B794-51479F59948C}"/>
+    <hyperlink ref="F10" r:id="rId38" xr:uid="{145E9CFF-8EF8-4BAF-B794-51479F59948C}"/>
     <hyperlink ref="B21" r:id="rId39" xr:uid="{4B2F483A-CC17-455C-A077-339776B7B188}"/>
     <hyperlink ref="I21" r:id="rId40" xr:uid="{4605C416-EB83-46E2-BC02-38491D81884F}"/>
+    <hyperlink ref="F9" r:id="rId41" xr:uid="{6027798A-AD6C-4184-B5BD-AD2E0FFF912E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId41"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId42"/>
 </worksheet>
 </file>
--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20F2B59-32D4-477C-B554-DCC0E215E5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25A1190-41FE-47B4-A189-7BC0CCAABDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="855" windowWidth="25080" windowHeight="19755" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-51300" yWindow="30" windowWidth="24435" windowHeight="16050" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -581,7 +581,7 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -734,7 +734,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="3">
-        <v>45668</v>
+        <v>45675</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
@@ -748,7 +748,7 @@
         <v>51</v>
       </c>
       <c r="G10" s="3">
-        <v>45670</v>
+        <v>45675</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25A1190-41FE-47B4-A189-7BC0CCAABDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825B1DE4-E31C-429B-B4B5-2062F5500DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51300" yWindow="30" windowWidth="24435" windowHeight="16050" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -581,7 +581,7 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -663,7 +663,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="3">
-        <v>45668</v>
+        <v>45682</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" t="s">

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825B1DE4-E31C-429B-B4B5-2062F5500DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029E06FC-F7A1-4EBC-ABA8-73BC9A9F5B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="11210" yWindow="3730" windowWidth="22530" windowHeight="16580" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -581,27 +581,27 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" customWidth="1"/>
+    <col min="5" max="5" width="1.453125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -612,7 +612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -635,7 +635,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -655,7 +655,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -663,7 +663,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="3">
-        <v>45682</v>
+        <v>45684</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" t="s">
@@ -674,7 +674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
@@ -693,7 +693,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -711,7 +711,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -723,12 +723,12 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>45659</v>
+        <v>45684</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>25</v>
@@ -737,7 +737,7 @@
         <v>45675</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
@@ -751,7 +751,7 @@
         <v>45675</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -769,7 +769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
@@ -787,7 +787,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
@@ -798,7 +798,7 @@
         <v>26</v>
       </c>
       <c r="G13" s="3">
-        <v>45670</v>
+        <v>45684</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>36</v>
@@ -807,7 +807,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
@@ -824,7 +824,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>27</v>
       </c>
@@ -835,7 +835,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
@@ -843,7 +843,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>43</v>
       </c>
@@ -860,7 +860,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
@@ -874,7 +874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
@@ -894,7 +894,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
@@ -908,7 +908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>52</v>
       </c>
@@ -928,7 +928,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>35</v>
       </c>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029E06FC-F7A1-4EBC-ABA8-73BC9A9F5B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D3A44F-2185-43E8-A19D-55948E0A5BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11210" yWindow="3730" windowWidth="22530" windowHeight="16580" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-32100" yWindow="1725" windowWidth="26475" windowHeight="13410" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -584,24 +584,24 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" customWidth="1"/>
-    <col min="5" max="5" width="1.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="1.42578125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
-    <col min="9" max="9" width="26.453125" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -612,7 +612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -635,7 +635,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -655,7 +655,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -674,7 +674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
@@ -693,7 +693,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -711,7 +711,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -723,7 +723,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -737,7 +737,7 @@
         <v>45675</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
@@ -751,7 +751,7 @@
         <v>45675</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="3">
-        <v>45652</v>
+        <v>45687</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -769,12 +769,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3">
-        <v>45656</v>
+        <v>45689</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>29</v>
@@ -787,7 +787,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
@@ -798,7 +798,7 @@
         <v>26</v>
       </c>
       <c r="G13" s="3">
-        <v>45684</v>
+        <v>45688</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>36</v>
@@ -807,7 +807,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
@@ -820,11 +820,11 @@
       <c r="G14" s="3">
         <v>45067</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F15" t="s">
         <v>27</v>
       </c>
@@ -835,7 +835,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
@@ -843,7 +843,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>43</v>
       </c>
@@ -860,7 +860,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
@@ -874,7 +874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
@@ -894,7 +894,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
@@ -908,7 +908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>52</v>
       </c>
@@ -928,7 +928,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
         <v>35</v>
       </c>
@@ -976,8 +976,9 @@
     <hyperlink ref="B21" r:id="rId39" xr:uid="{4B2F483A-CC17-455C-A077-339776B7B188}"/>
     <hyperlink ref="I21" r:id="rId40" xr:uid="{4605C416-EB83-46E2-BC02-38491D81884F}"/>
     <hyperlink ref="F9" r:id="rId41" xr:uid="{6027798A-AD6C-4184-B5BD-AD2E0FFF912E}"/>
+    <hyperlink ref="I14" r:id="rId42" xr:uid="{58E30F9F-C4AC-49C0-954A-3705C3A32C26}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId42"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId43"/>
 </worksheet>
 </file>
--- a/Master.xlsx
+++ b/Master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D3A44F-2185-43E8-A19D-55948E0A5BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C1AA60-4E96-4507-A2F8-475488A5D49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32100" yWindow="1725" windowWidth="26475" windowHeight="13410" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="15370" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -581,27 +581,27 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" customWidth="1"/>
+    <col min="5" max="5" width="1.453125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -612,7 +612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -635,7 +635,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -655,7 +655,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -663,7 +663,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="3">
-        <v>45684</v>
+        <v>45691</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" t="s">
@@ -674,12 +674,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="3">
-        <v>45580</v>
+        <v>45691</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" t="s">
@@ -693,7 +693,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -711,7 +711,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -723,7 +723,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -737,7 +737,7 @@
         <v>45675</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
@@ -751,7 +751,7 @@
         <v>45675</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -769,7 +769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
@@ -787,7 +787,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
@@ -807,7 +807,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
@@ -824,7 +824,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>27</v>
       </c>
@@ -835,7 +835,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
@@ -843,7 +843,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>43</v>
       </c>
@@ -860,7 +860,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
@@ -874,7 +874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
@@ -894,7 +894,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
@@ -908,7 +908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>52</v>
       </c>
@@ -928,7 +928,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>35</v>
       </c>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C1AA60-4E96-4507-A2F8-475488A5D49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6237F5CD-D8E4-4EFC-876C-9C1330182475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="15370" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="15370" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -580,9 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42384B1-3750-4D72-9C5D-79E74248529A}">
   <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6237F5CD-D8E4-4EFC-876C-9C1330182475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FED3DC-0CFA-4418-A700-3A2EBEA33FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="15370" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-26805" yWindow="1890" windowWidth="22410" windowHeight="14220" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -580,26 +580,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42384B1-3750-4D72-9C5D-79E74248529A}">
   <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" customWidth="1"/>
-    <col min="5" max="5" width="1.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="1.42578125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
-    <col min="9" max="9" width="26.453125" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -610,7 +612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -618,7 +620,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3">
-        <v>45635</v>
+        <v>45698</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
@@ -633,7 +635,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -653,7 +655,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -672,7 +674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
@@ -691,12 +693,12 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="3">
-        <v>45580</v>
+        <v>45698</v>
       </c>
       <c r="F7" t="s">
         <v>31</v>
@@ -709,7 +711,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -721,7 +723,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -735,7 +737,7 @@
         <v>45675</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
@@ -749,7 +751,7 @@
         <v>45675</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -767,12 +769,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3">
-        <v>45689</v>
+        <v>45698</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>29</v>
@@ -785,7 +787,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
@@ -805,7 +807,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
@@ -822,7 +824,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F15" t="s">
         <v>27</v>
       </c>
@@ -833,7 +835,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
@@ -841,7 +843,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>43</v>
       </c>
@@ -858,7 +860,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
@@ -872,7 +874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
@@ -892,7 +894,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
@@ -906,7 +908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>52</v>
       </c>
@@ -926,7 +928,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
         <v>35</v>
       </c>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FED3DC-0CFA-4418-A700-3A2EBEA33FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD737B7-1828-41CE-B0F8-43646269CF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26805" yWindow="1890" windowWidth="22410" windowHeight="14220" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="15840" yWindow="2580" windowWidth="21900" windowHeight="14640" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -581,27 +581,27 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" customWidth="1"/>
+    <col min="5" max="5" width="1.453125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -612,7 +612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -635,7 +635,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -646,7 +646,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="3">
-        <v>44955</v>
+        <v>45699</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>13</v>
@@ -655,7 +655,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -666,15 +666,17 @@
         <v>45691</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="3">
+        <v>45699</v>
+      </c>
       <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
@@ -693,7 +695,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -711,7 +713,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -723,7 +725,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -737,7 +739,7 @@
         <v>45675</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
@@ -748,10 +750,10 @@
         <v>51</v>
       </c>
       <c r="G10" s="3">
-        <v>45675</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -759,7 +761,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="3">
-        <v>45687</v>
+        <v>45701</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -769,12 +771,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3">
-        <v>45698</v>
+        <v>45701</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>29</v>
@@ -787,7 +789,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
@@ -807,7 +809,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
@@ -824,7 +826,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>27</v>
       </c>
@@ -835,7 +837,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
@@ -843,7 +845,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>43</v>
       </c>
@@ -860,7 +862,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
@@ -874,7 +876,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
@@ -894,7 +896,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
@@ -908,7 +910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>52</v>
       </c>
@@ -928,7 +930,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>35</v>
       </c>
@@ -977,8 +979,9 @@
     <hyperlink ref="I21" r:id="rId40" xr:uid="{4605C416-EB83-46E2-BC02-38491D81884F}"/>
     <hyperlink ref="F9" r:id="rId41" xr:uid="{6027798A-AD6C-4184-B5BD-AD2E0FFF912E}"/>
     <hyperlink ref="I14" r:id="rId42" xr:uid="{58E30F9F-C4AC-49C0-954A-3705C3A32C26}"/>
+    <hyperlink ref="F5" r:id="rId43" xr:uid="{CF731145-D908-4126-8E01-24EB9D7C30A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId43"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId44"/>
 </worksheet>
 </file>
--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD737B7-1828-41CE-B0F8-43646269CF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68766F26-CCE8-4377-8689-083B32575ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15840" yWindow="2580" windowWidth="21900" windowHeight="14640" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="470" yWindow="2770" windowWidth="21900" windowHeight="14640" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Healthcare</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Proteins</t>
+  </si>
+  <si>
+    <t>Financials</t>
   </si>
 </sst>
 </file>
@@ -581,7 +584,7 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -754,11 +757,8 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>3</v>
+      <c r="B11" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D11" s="3">
         <v>45701</v>
@@ -772,8 +772,11 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
-        <v>4</v>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="D12" s="3">
         <v>45701</v>
@@ -791,10 +794,10 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D13" s="3">
-        <v>45581</v>
+        <v>45701</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>26</v>
@@ -810,11 +813,11 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>37</v>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D14" s="3">
-        <v>45591</v>
+        <v>45581</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>30</v>
@@ -827,6 +830,12 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3">
+        <v>45591</v>
+      </c>
       <c r="F15" t="s">
         <v>27</v>
       </c>
@@ -846,12 +855,6 @@
       </c>
     </row>
     <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="3">
-        <v>44973</v>
-      </c>
       <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
@@ -864,10 +867,10 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C18" s="3">
-        <v>44943</v>
+        <v>44973</v>
       </c>
       <c r="F18" t="s">
         <v>39</v>
@@ -878,10 +881,10 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3">
-        <v>45635</v>
+        <v>44943</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>32</v>
@@ -898,10 +901,10 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="3">
-        <v>44989</v>
+        <v>45635</v>
       </c>
       <c r="F20" t="s">
         <v>40</v>
@@ -912,10 +915,10 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C21" s="3">
-        <v>45653</v>
+        <v>44989</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>38</v>
@@ -931,6 +934,12 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="3">
+        <v>45653</v>
+      </c>
       <c r="F22" t="s">
         <v>35</v>
       </c>
@@ -944,26 +953,26 @@
     <hyperlink ref="I3" r:id="rId5" xr:uid="{2B65303F-578F-447C-BA7D-79EFD53A27E3}"/>
     <hyperlink ref="I4" r:id="rId6" xr:uid="{2703CFA8-6F7B-4B1D-AB1F-22E8516323C5}"/>
     <hyperlink ref="I5" r:id="rId7" xr:uid="{3D8CF38A-629A-428F-95F8-29802EA7365F}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{1DCFCDF4-EFB4-495D-8529-6916F8E3FAF9}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{7391B2CC-0ADA-4E8B-94E2-02F6C460E04D}"/>
-    <hyperlink ref="C13" r:id="rId10" xr:uid="{709BE174-354B-414C-9E0C-0CB26CB17087}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{1DCFCDF4-EFB4-495D-8529-6916F8E3FAF9}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{7391B2CC-0ADA-4E8B-94E2-02F6C460E04D}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{709BE174-354B-414C-9E0C-0CB26CB17087}"/>
     <hyperlink ref="B3" r:id="rId11" xr:uid="{24A2749C-99B8-4990-BB16-473551B4C3C9}"/>
     <hyperlink ref="F3" r:id="rId12" xr:uid="{7C002F4D-FA82-46DF-88D0-F20531EFA3F8}"/>
     <hyperlink ref="B4" r:id="rId13" xr:uid="{8948FD7E-0C11-4C65-9F65-A8131ECB1883}"/>
     <hyperlink ref="C3" r:id="rId14" xr:uid="{5BD33B80-85A5-495B-8D10-F6024818A7EA}"/>
-    <hyperlink ref="B17" r:id="rId15" display="Computational Chemistry" xr:uid="{00DB20DF-95BE-4ACB-833E-78679B1DEBE4}"/>
+    <hyperlink ref="B18" r:id="rId15" display="Computational Chemistry" xr:uid="{00DB20DF-95BE-4ACB-833E-78679B1DEBE4}"/>
     <hyperlink ref="I15" r:id="rId16" xr:uid="{B5350D8F-E15C-4D97-AFF4-87976D01709F}"/>
     <hyperlink ref="I18" r:id="rId17" xr:uid="{A4E89726-D06D-4F39-9FDF-8E6FF757E15B}"/>
     <hyperlink ref="I20" r:id="rId18" xr:uid="{E240AB7D-EB2A-4C47-ACE3-6DC4E97E10C6}"/>
     <hyperlink ref="I17" r:id="rId19" xr:uid="{03928271-2931-4899-87B7-284D280588C6}"/>
-    <hyperlink ref="B18" r:id="rId20" xr:uid="{F9503C01-C6D8-4507-B1D8-228E2A2FFAAD}"/>
+    <hyperlink ref="B19" r:id="rId20" xr:uid="{F9503C01-C6D8-4507-B1D8-228E2A2FFAAD}"/>
     <hyperlink ref="I13" r:id="rId21" xr:uid="{A65108F0-2E05-4701-9FD5-ECB4643B538C}"/>
     <hyperlink ref="F13" r:id="rId22" xr:uid="{80621359-2F8B-4A5B-BC6A-2FB82EA4769B}"/>
     <hyperlink ref="I16" r:id="rId23" xr:uid="{CD87D806-2453-46D8-B81F-88E0AF410576}"/>
     <hyperlink ref="F21" r:id="rId24" xr:uid="{A3E39291-0AD8-4434-9956-506F6456A6EF}"/>
     <hyperlink ref="F19" r:id="rId25" xr:uid="{3E303140-6F63-43CA-A742-BF4F34C477BF}"/>
-    <hyperlink ref="B19" r:id="rId26" xr:uid="{94B54C11-D57C-4517-801E-20549E100878}"/>
-    <hyperlink ref="B20" r:id="rId27" xr:uid="{548404B7-486D-4DC1-8702-5308F6B726F9}"/>
+    <hyperlink ref="B20" r:id="rId26" xr:uid="{94B54C11-D57C-4517-801E-20549E100878}"/>
+    <hyperlink ref="B21" r:id="rId27" xr:uid="{548404B7-486D-4DC1-8702-5308F6B726F9}"/>
     <hyperlink ref="F4" r:id="rId28" xr:uid="{7461AF2B-1114-4E32-AB2C-C6FAFC7D3A58}"/>
     <hyperlink ref="C6" r:id="rId29" xr:uid="{2C353417-9F4E-40AB-B114-1CBC57D488C4}"/>
     <hyperlink ref="F14" r:id="rId30" xr:uid="{48D24448-8336-4F85-A615-1301297E8AB2}"/>
@@ -973,15 +982,16 @@
     <hyperlink ref="F12" r:id="rId34" xr:uid="{04269E00-6C8E-43B0-AEAA-6E9875BD4BB1}"/>
     <hyperlink ref="B10" r:id="rId35" xr:uid="{9F42216A-D0D1-49BF-A668-FAA4E57ACAFD}"/>
     <hyperlink ref="I7" r:id="rId36" xr:uid="{CC760BE0-2C33-49BC-866B-392B855548FE}"/>
-    <hyperlink ref="B14" r:id="rId37" xr:uid="{D1C3BC07-4E48-4FE6-9B08-2FF79CC92C96}"/>
+    <hyperlink ref="B15" r:id="rId37" xr:uid="{D1C3BC07-4E48-4FE6-9B08-2FF79CC92C96}"/>
     <hyperlink ref="F10" r:id="rId38" xr:uid="{145E9CFF-8EF8-4BAF-B794-51479F59948C}"/>
-    <hyperlink ref="B21" r:id="rId39" xr:uid="{4B2F483A-CC17-455C-A077-339776B7B188}"/>
+    <hyperlink ref="B22" r:id="rId39" xr:uid="{4B2F483A-CC17-455C-A077-339776B7B188}"/>
     <hyperlink ref="I21" r:id="rId40" xr:uid="{4605C416-EB83-46E2-BC02-38491D81884F}"/>
     <hyperlink ref="F9" r:id="rId41" xr:uid="{6027798A-AD6C-4184-B5BD-AD2E0FFF912E}"/>
     <hyperlink ref="I14" r:id="rId42" xr:uid="{58E30F9F-C4AC-49C0-954A-3705C3A32C26}"/>
     <hyperlink ref="F5" r:id="rId43" xr:uid="{CF731145-D908-4126-8E01-24EB9D7C30A7}"/>
+    <hyperlink ref="B11" r:id="rId44" xr:uid="{FA315E08-E8F1-4B3E-950F-7F4D6698C736}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId44"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId45"/>
 </worksheet>
 </file>
--- a/Master.xlsx
+++ b/Master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68766F26-CCE8-4377-8689-083B32575ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1BB5F9-C6FE-4E45-9FC2-8AEE7AF0D6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="470" yWindow="2770" windowWidth="21900" windowHeight="14640" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-18900" yWindow="255" windowWidth="18705" windowHeight="17085" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -584,27 +584,27 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" customWidth="1"/>
-    <col min="5" max="5" width="1.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="1.42578125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
-    <col min="9" max="9" width="26.453125" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -615,7 +615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -638,7 +638,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -658,7 +658,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -679,7 +679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
@@ -698,7 +698,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -716,7 +716,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -728,7 +728,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -742,7 +742,7 @@
         <v>45675</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
@@ -756,7 +756,7 @@
         <v>45699</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
@@ -771,7 +771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -792,12 +792,12 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="3">
-        <v>45701</v>
+        <v>45702</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>26</v>
@@ -812,7 +812,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -829,7 +829,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
@@ -846,7 +846,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
@@ -854,7 +854,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
@@ -865,7 +865,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
@@ -879,7 +879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
@@ -899,7 +899,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
@@ -913,7 +913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
@@ -933,7 +933,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1BB5F9-C6FE-4E45-9FC2-8AEE7AF0D6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7975918-EF5F-4E75-884C-13BB53F560B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18900" yWindow="255" windowWidth="18705" windowHeight="17085" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="12330" yWindow="4510" windowWidth="22990" windowHeight="13690" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -583,28 +583,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42384B1-3750-4D72-9C5D-79E74248529A}">
   <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" customWidth="1"/>
+    <col min="5" max="5" width="1.453125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -615,7 +615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -638,7 +638,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -658,7 +658,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -666,7 +666,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="3">
-        <v>45691</v>
+        <v>45707</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
@@ -679,7 +679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
@@ -698,7 +698,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -716,7 +716,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -728,12 +728,12 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>45684</v>
+        <v>45708</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>25</v>
@@ -742,7 +742,7 @@
         <v>45675</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
@@ -756,7 +756,7 @@
         <v>45699</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
@@ -771,7 +771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -792,7 +792,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
@@ -812,7 +812,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -829,7 +829,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
@@ -846,7 +846,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
@@ -854,7 +854,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
@@ -865,7 +865,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
@@ -879,7 +879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
@@ -899,12 +899,12 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="3">
-        <v>45635</v>
+        <v>45706</v>
       </c>
       <c r="F20" t="s">
         <v>40</v>
@@ -913,7 +913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
@@ -933,7 +933,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7975918-EF5F-4E75-884C-13BB53F560B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC48B974-E980-4BDD-B682-ECE4C75F7A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12330" yWindow="4510" windowWidth="22990" windowHeight="13690" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="13160" yWindow="3500" windowWidth="25480" windowHeight="13910" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -583,9 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42384B1-3750-4D72-9C5D-79E74248529A}">
   <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -721,7 +719,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="3">
-        <v>45635</v>
+        <v>45712</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -747,7 +745,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="3">
-        <v>45581</v>
+        <v>45712</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>51</v>
@@ -761,7 +759,7 @@
         <v>54</v>
       </c>
       <c r="D11" s="3">
-        <v>45701</v>
+        <v>45712</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC48B974-E980-4BDD-B682-ECE4C75F7A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6043D3-CCBF-4915-A7B6-BD9388CA38A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13160" yWindow="3500" windowWidth="25480" windowHeight="13910" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="17580" yWindow="4520" windowWidth="20550" windowHeight="13540" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6043D3-CCBF-4915-A7B6-BD9388CA38A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDDEC85-FAD6-4AEC-B17A-5B6F936A2469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17580" yWindow="4520" windowWidth="20550" windowHeight="13540" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-19575" yWindow="930" windowWidth="18510" windowHeight="11235" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -583,26 +583,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42384B1-3750-4D72-9C5D-79E74248529A}">
   <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" customWidth="1"/>
-    <col min="5" max="5" width="1.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="1.42578125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
-    <col min="9" max="9" width="26.453125" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -613,7 +615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -636,7 +638,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -656,7 +658,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -677,7 +679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
@@ -696,7 +698,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -714,7 +716,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -726,7 +728,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -740,7 +742,7 @@
         <v>45675</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
@@ -754,7 +756,7 @@
         <v>45699</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
@@ -769,7 +771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -790,7 +792,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
@@ -810,7 +812,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -827,7 +829,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
@@ -844,7 +846,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
@@ -852,7 +854,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
@@ -863,7 +865,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
@@ -877,7 +879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
@@ -897,7 +899,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
@@ -911,7 +913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
@@ -931,7 +933,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDDEC85-FAD6-4AEC-B17A-5B6F936A2469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DC2656-146D-452C-A83A-EFF7ADB1556A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19575" yWindow="930" windowWidth="18510" windowHeight="11235" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-25890" yWindow="2055" windowWidth="25590" windowHeight="15345" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -584,7 +584,7 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -623,7 +623,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3">
-        <v>45698</v>
+        <v>45718</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
@@ -655,7 +655,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="3">
-        <v>45054</v>
+        <v>45718</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
@@ -666,7 +666,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="3">
-        <v>45707</v>
+        <v>45719</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
@@ -703,7 +703,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="3">
-        <v>45698</v>
+        <v>45718</v>
       </c>
       <c r="F7" t="s">
         <v>31</v>
@@ -733,13 +733,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>45708</v>
+        <v>45718</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="3">
-        <v>45675</v>
+        <v>45717</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
@@ -747,7 +747,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="3">
-        <v>45712</v>
+        <v>45718</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>51</v>
@@ -761,7 +761,7 @@
         <v>54</v>
       </c>
       <c r="D11" s="3">
-        <v>45712</v>
+        <v>45718</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -779,7 +779,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="3">
-        <v>45701</v>
+        <v>45718</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>29</v>
@@ -797,7 +797,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="3">
-        <v>45702</v>
+        <v>45718</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>26</v>
@@ -817,7 +817,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="3">
-        <v>45581</v>
+        <v>45718</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>30</v>
@@ -904,7 +904,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="3">
-        <v>45706</v>
+        <v>45717</v>
       </c>
       <c r="F20" t="s">
         <v>40</v>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DC2656-146D-452C-A83A-EFF7ADB1556A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCF0407-7F8E-447A-975B-4B699123C1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25890" yWindow="2055" windowWidth="25590" windowHeight="15345" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="13245" yWindow="4110" windowWidth="21390" windowHeight="12960" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -587,24 +587,24 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" customWidth="1"/>
+    <col min="5" max="5" width="1.453125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -615,7 +615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -638,7 +638,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -658,7 +658,7 @@
         <v>45718</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -666,7 +666,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="3">
-        <v>45719</v>
+        <v>45721</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
@@ -679,7 +679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
@@ -698,7 +698,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -716,7 +716,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -728,7 +728,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -742,7 +742,7 @@
         <v>45717</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
@@ -756,7 +756,7 @@
         <v>45699</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
@@ -771,7 +771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -779,7 +779,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="3">
-        <v>45718</v>
+        <v>45721</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>29</v>
@@ -792,7 +792,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
@@ -812,7 +812,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -829,7 +829,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
@@ -846,7 +846,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
@@ -854,7 +854,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
@@ -865,7 +865,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
@@ -879,7 +879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
@@ -899,7 +899,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
@@ -913,7 +913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
@@ -933,7 +933,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCF0407-7F8E-447A-975B-4B699123C1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38F799D-F31C-48A1-A710-34E3423061B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13245" yWindow="4110" windowWidth="21390" windowHeight="12960" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="8670" yWindow="615" windowWidth="21720" windowHeight="17280" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -584,27 +584,27 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" customWidth="1"/>
-    <col min="5" max="5" width="1.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="1.42578125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
-    <col min="9" max="9" width="26.453125" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -615,7 +615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -638,7 +638,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -655,10 +655,10 @@
         <v>13</v>
       </c>
       <c r="J4" s="3">
-        <v>45718</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+        <v>45730</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -666,7 +666,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="3">
-        <v>45721</v>
+        <v>45733</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
@@ -679,7 +679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
@@ -698,7 +698,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -716,7 +716,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -728,7 +728,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -742,7 +742,7 @@
         <v>45717</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
@@ -756,7 +756,7 @@
         <v>45699</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
@@ -771,7 +771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -792,12 +792,12 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="3">
-        <v>45718</v>
+        <v>45730</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>26</v>
@@ -812,12 +812,12 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="3">
-        <v>45718</v>
+        <v>45733</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>30</v>
@@ -829,7 +829,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
@@ -846,7 +846,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
@@ -854,7 +854,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
@@ -865,7 +865,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
@@ -879,7 +879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
@@ -899,7 +899,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
@@ -913,7 +913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
@@ -933,7 +933,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38F799D-F31C-48A1-A710-34E3423061B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FD42E7-BDC0-4732-8915-3F4101D71C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8670" yWindow="615" windowWidth="21720" windowHeight="17280" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="17250" yWindow="2985" windowWidth="21720" windowHeight="17280" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -584,7 +584,7 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -623,7 +623,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3">
-        <v>45718</v>
+        <v>45735</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
@@ -797,7 +797,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="3">
-        <v>45730</v>
+        <v>45735</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>26</v>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FD42E7-BDC0-4732-8915-3F4101D71C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BF8AF3-9360-4BD3-9030-12DC2FC60721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17250" yWindow="2985" windowWidth="21720" windowHeight="17280" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="20850" yWindow="1935" windowWidth="21720" windowHeight="17280" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Healthcare</t>
   </si>
@@ -584,7 +584,7 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -619,9 +619,7 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="3">
         <v>45735</v>
       </c>
@@ -643,7 +641,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="3">
-        <v>45586</v>
+        <v>45738</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>22</v>
@@ -666,7 +664,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="3">
-        <v>45733</v>
+        <v>45738</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
@@ -959,39 +957,38 @@
     <hyperlink ref="B3" r:id="rId11" xr:uid="{24A2749C-99B8-4990-BB16-473551B4C3C9}"/>
     <hyperlink ref="F3" r:id="rId12" xr:uid="{7C002F4D-FA82-46DF-88D0-F20531EFA3F8}"/>
     <hyperlink ref="B4" r:id="rId13" xr:uid="{8948FD7E-0C11-4C65-9F65-A8131ECB1883}"/>
-    <hyperlink ref="C3" r:id="rId14" xr:uid="{5BD33B80-85A5-495B-8D10-F6024818A7EA}"/>
-    <hyperlink ref="B18" r:id="rId15" display="Computational Chemistry" xr:uid="{00DB20DF-95BE-4ACB-833E-78679B1DEBE4}"/>
-    <hyperlink ref="I15" r:id="rId16" xr:uid="{B5350D8F-E15C-4D97-AFF4-87976D01709F}"/>
-    <hyperlink ref="I18" r:id="rId17" xr:uid="{A4E89726-D06D-4F39-9FDF-8E6FF757E15B}"/>
-    <hyperlink ref="I20" r:id="rId18" xr:uid="{E240AB7D-EB2A-4C47-ACE3-6DC4E97E10C6}"/>
-    <hyperlink ref="I17" r:id="rId19" xr:uid="{03928271-2931-4899-87B7-284D280588C6}"/>
-    <hyperlink ref="B19" r:id="rId20" xr:uid="{F9503C01-C6D8-4507-B1D8-228E2A2FFAAD}"/>
-    <hyperlink ref="I13" r:id="rId21" xr:uid="{A65108F0-2E05-4701-9FD5-ECB4643B538C}"/>
-    <hyperlink ref="F13" r:id="rId22" xr:uid="{80621359-2F8B-4A5B-BC6A-2FB82EA4769B}"/>
-    <hyperlink ref="I16" r:id="rId23" xr:uid="{CD87D806-2453-46D8-B81F-88E0AF410576}"/>
-    <hyperlink ref="F21" r:id="rId24" xr:uid="{A3E39291-0AD8-4434-9956-506F6456A6EF}"/>
-    <hyperlink ref="F19" r:id="rId25" xr:uid="{3E303140-6F63-43CA-A742-BF4F34C477BF}"/>
-    <hyperlink ref="B20" r:id="rId26" xr:uid="{94B54C11-D57C-4517-801E-20549E100878}"/>
-    <hyperlink ref="B21" r:id="rId27" xr:uid="{548404B7-486D-4DC1-8702-5308F6B726F9}"/>
-    <hyperlink ref="F4" r:id="rId28" xr:uid="{7461AF2B-1114-4E32-AB2C-C6FAFC7D3A58}"/>
-    <hyperlink ref="C6" r:id="rId29" xr:uid="{2C353417-9F4E-40AB-B114-1CBC57D488C4}"/>
-    <hyperlink ref="F14" r:id="rId30" xr:uid="{48D24448-8336-4F85-A615-1301297E8AB2}"/>
-    <hyperlink ref="I19" r:id="rId31" xr:uid="{B734B13E-ABA2-4947-A17D-61A56EEED260}"/>
-    <hyperlink ref="I12" r:id="rId32" xr:uid="{153B455A-C061-4AA8-928A-EEA0E41E6023}"/>
-    <hyperlink ref="I6" r:id="rId33" xr:uid="{82AAD8AA-25D4-4169-92B7-9ED20F2227BC}"/>
-    <hyperlink ref="F12" r:id="rId34" xr:uid="{04269E00-6C8E-43B0-AEAA-6E9875BD4BB1}"/>
-    <hyperlink ref="B10" r:id="rId35" xr:uid="{9F42216A-D0D1-49BF-A668-FAA4E57ACAFD}"/>
-    <hyperlink ref="I7" r:id="rId36" xr:uid="{CC760BE0-2C33-49BC-866B-392B855548FE}"/>
-    <hyperlink ref="B15" r:id="rId37" xr:uid="{D1C3BC07-4E48-4FE6-9B08-2FF79CC92C96}"/>
-    <hyperlink ref="F10" r:id="rId38" xr:uid="{145E9CFF-8EF8-4BAF-B794-51479F59948C}"/>
-    <hyperlink ref="B22" r:id="rId39" xr:uid="{4B2F483A-CC17-455C-A077-339776B7B188}"/>
-    <hyperlink ref="I21" r:id="rId40" xr:uid="{4605C416-EB83-46E2-BC02-38491D81884F}"/>
-    <hyperlink ref="F9" r:id="rId41" xr:uid="{6027798A-AD6C-4184-B5BD-AD2E0FFF912E}"/>
-    <hyperlink ref="I14" r:id="rId42" xr:uid="{58E30F9F-C4AC-49C0-954A-3705C3A32C26}"/>
-    <hyperlink ref="F5" r:id="rId43" xr:uid="{CF731145-D908-4126-8E01-24EB9D7C30A7}"/>
-    <hyperlink ref="B11" r:id="rId44" xr:uid="{FA315E08-E8F1-4B3E-950F-7F4D6698C736}"/>
+    <hyperlink ref="B18" r:id="rId14" display="Computational Chemistry" xr:uid="{00DB20DF-95BE-4ACB-833E-78679B1DEBE4}"/>
+    <hyperlink ref="I15" r:id="rId15" xr:uid="{B5350D8F-E15C-4D97-AFF4-87976D01709F}"/>
+    <hyperlink ref="I18" r:id="rId16" xr:uid="{A4E89726-D06D-4F39-9FDF-8E6FF757E15B}"/>
+    <hyperlink ref="I20" r:id="rId17" xr:uid="{E240AB7D-EB2A-4C47-ACE3-6DC4E97E10C6}"/>
+    <hyperlink ref="I17" r:id="rId18" xr:uid="{03928271-2931-4899-87B7-284D280588C6}"/>
+    <hyperlink ref="B19" r:id="rId19" xr:uid="{F9503C01-C6D8-4507-B1D8-228E2A2FFAAD}"/>
+    <hyperlink ref="I13" r:id="rId20" xr:uid="{A65108F0-2E05-4701-9FD5-ECB4643B538C}"/>
+    <hyperlink ref="F13" r:id="rId21" xr:uid="{80621359-2F8B-4A5B-BC6A-2FB82EA4769B}"/>
+    <hyperlink ref="I16" r:id="rId22" xr:uid="{CD87D806-2453-46D8-B81F-88E0AF410576}"/>
+    <hyperlink ref="F21" r:id="rId23" xr:uid="{A3E39291-0AD8-4434-9956-506F6456A6EF}"/>
+    <hyperlink ref="F19" r:id="rId24" xr:uid="{3E303140-6F63-43CA-A742-BF4F34C477BF}"/>
+    <hyperlink ref="B20" r:id="rId25" xr:uid="{94B54C11-D57C-4517-801E-20549E100878}"/>
+    <hyperlink ref="B21" r:id="rId26" xr:uid="{548404B7-486D-4DC1-8702-5308F6B726F9}"/>
+    <hyperlink ref="F4" r:id="rId27" xr:uid="{7461AF2B-1114-4E32-AB2C-C6FAFC7D3A58}"/>
+    <hyperlink ref="C6" r:id="rId28" xr:uid="{2C353417-9F4E-40AB-B114-1CBC57D488C4}"/>
+    <hyperlink ref="F14" r:id="rId29" xr:uid="{48D24448-8336-4F85-A615-1301297E8AB2}"/>
+    <hyperlink ref="I19" r:id="rId30" xr:uid="{B734B13E-ABA2-4947-A17D-61A56EEED260}"/>
+    <hyperlink ref="I12" r:id="rId31" xr:uid="{153B455A-C061-4AA8-928A-EEA0E41E6023}"/>
+    <hyperlink ref="I6" r:id="rId32" xr:uid="{82AAD8AA-25D4-4169-92B7-9ED20F2227BC}"/>
+    <hyperlink ref="F12" r:id="rId33" xr:uid="{04269E00-6C8E-43B0-AEAA-6E9875BD4BB1}"/>
+    <hyperlink ref="B10" r:id="rId34" xr:uid="{9F42216A-D0D1-49BF-A668-FAA4E57ACAFD}"/>
+    <hyperlink ref="I7" r:id="rId35" xr:uid="{CC760BE0-2C33-49BC-866B-392B855548FE}"/>
+    <hyperlink ref="B15" r:id="rId36" xr:uid="{D1C3BC07-4E48-4FE6-9B08-2FF79CC92C96}"/>
+    <hyperlink ref="F10" r:id="rId37" xr:uid="{145E9CFF-8EF8-4BAF-B794-51479F59948C}"/>
+    <hyperlink ref="B22" r:id="rId38" xr:uid="{4B2F483A-CC17-455C-A077-339776B7B188}"/>
+    <hyperlink ref="I21" r:id="rId39" xr:uid="{4605C416-EB83-46E2-BC02-38491D81884F}"/>
+    <hyperlink ref="F9" r:id="rId40" xr:uid="{6027798A-AD6C-4184-B5BD-AD2E0FFF912E}"/>
+    <hyperlink ref="I14" r:id="rId41" xr:uid="{58E30F9F-C4AC-49C0-954A-3705C3A32C26}"/>
+    <hyperlink ref="F5" r:id="rId42" xr:uid="{CF731145-D908-4126-8E01-24EB9D7C30A7}"/>
+    <hyperlink ref="B11" r:id="rId43" xr:uid="{FA315E08-E8F1-4B3E-950F-7F4D6698C736}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId45"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId44"/>
 </worksheet>
 </file>
--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BF8AF3-9360-4BD3-9030-12DC2FC60721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DB0AD8-3134-47A4-8CE5-16BA20CEA38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20850" yWindow="1935" windowWidth="21720" windowHeight="17280" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="43200" yWindow="2350" windowWidth="20160" windowHeight="12460" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42384B1-3750-4D72-9C5D-79E74248529A}">
   <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DB0AD8-3134-47A4-8CE5-16BA20CEA38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C85D013-F7A2-4519-A861-7FBC79B55FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43200" yWindow="2350" windowWidth="20160" windowHeight="12460" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-42435" yWindow="2160" windowWidth="21045" windowHeight="13620" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -584,7 +584,7 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -936,7 +936,7 @@
         <v>52</v>
       </c>
       <c r="C22" s="3">
-        <v>45653</v>
+        <v>45741</v>
       </c>
       <c r="F22" t="s">
         <v>35</v>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C85D013-F7A2-4519-A861-7FBC79B55FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5B407B-A823-4DF3-ABDB-8355C1CBB8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42435" yWindow="2160" windowWidth="21045" windowHeight="13620" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-27840" yWindow="765" windowWidth="27150" windowHeight="18675" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42384B1-3750-4D72-9C5D-79E74248529A}">
   <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -621,7 +621,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3">
-        <v>45735</v>
+        <v>45742</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
@@ -653,7 +653,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="3">
-        <v>45730</v>
+        <v>45742</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
@@ -731,7 +731,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>45718</v>
+        <v>45742</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>25</v>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5B407B-A823-4DF3-ABDB-8355C1CBB8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19B4784-0CC0-41EB-9633-D14CA1DD3EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27840" yWindow="765" windowWidth="27150" windowHeight="18675" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="46500" yWindow="5660" windowWidth="21420" windowHeight="16260" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -584,27 +584,27 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" customWidth="1"/>
+    <col min="5" max="5" width="1.453125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -615,7 +615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -636,7 +636,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -656,7 +656,7 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -664,7 +664,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="3">
-        <v>45738</v>
+        <v>45743</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
@@ -677,7 +677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
@@ -696,7 +696,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -714,7 +714,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -726,7 +726,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -740,7 +740,7 @@
         <v>45717</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
@@ -754,7 +754,7 @@
         <v>45699</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
@@ -769,7 +769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -790,12 +790,12 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="3">
-        <v>45735</v>
+        <v>45743</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>26</v>
@@ -810,7 +810,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -827,7 +827,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
@@ -844,7 +844,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
@@ -852,7 +852,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
@@ -863,7 +863,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
@@ -877,7 +877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
@@ -897,7 +897,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
@@ -911,7 +911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
@@ -931,7 +931,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19B4784-0CC0-41EB-9633-D14CA1DD3EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD55B65E-D335-4C2F-BF21-541220AC9AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46500" yWindow="5660" windowWidth="21420" windowHeight="16260" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-51600" yWindow="495" windowWidth="25530" windowHeight="20280" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -584,27 +584,27 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" customWidth="1"/>
-    <col min="5" max="5" width="1.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="1.42578125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
-    <col min="9" max="9" width="26.453125" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -615,7 +615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -636,7 +636,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -656,7 +656,7 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -677,7 +677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
@@ -696,7 +696,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -714,7 +714,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -726,7 +726,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -740,7 +740,7 @@
         <v>45717</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
@@ -754,7 +754,7 @@
         <v>45699</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
@@ -769,7 +769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -790,7 +790,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
@@ -810,7 +810,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -827,7 +827,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
@@ -844,7 +844,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
@@ -852,7 +852,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
@@ -863,7 +863,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
@@ -877,7 +877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
@@ -897,7 +897,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
@@ -911,7 +911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
@@ -931,7 +931,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD55B65E-D335-4C2F-BF21-541220AC9AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51501A4C-6690-44A2-ACC8-CA7A88A6D96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51600" yWindow="495" windowWidth="25530" windowHeight="20280" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="4180" yWindow="4180" windowWidth="25420" windowHeight="16500" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -583,28 +583,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42384B1-3750-4D72-9C5D-79E74248529A}">
   <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" customWidth="1"/>
+    <col min="5" max="5" width="1.453125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -615,7 +615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -636,7 +636,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -656,7 +656,7 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -677,7 +677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
@@ -696,7 +696,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -714,7 +714,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -726,7 +726,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -740,7 +740,7 @@
         <v>45717</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
@@ -754,7 +754,7 @@
         <v>45699</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
@@ -769,7 +769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -790,7 +790,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
@@ -810,7 +810,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -827,7 +827,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
@@ -844,7 +844,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
@@ -852,7 +852,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
@@ -863,7 +863,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
@@ -877,7 +877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
@@ -897,7 +897,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
@@ -911,7 +911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
@@ -931,7 +931,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51501A4C-6690-44A2-ACC8-CA7A88A6D96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E88F89-0346-43C9-A20F-380B5A360569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="4180" windowWidth="25420" windowHeight="16500" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-21105" yWindow="1740" windowWidth="21060" windowHeight="17130" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -583,28 +583,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42384B1-3750-4D72-9C5D-79E74248529A}">
   <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" customWidth="1"/>
-    <col min="5" max="5" width="1.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="1.42578125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
-    <col min="9" max="9" width="26.453125" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -615,7 +613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -636,7 +634,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -656,7 +654,7 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -677,7 +675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
@@ -696,7 +694,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -714,7 +712,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -726,7 +724,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -740,7 +738,7 @@
         <v>45717</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
@@ -754,7 +752,7 @@
         <v>45699</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
@@ -769,7 +767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -790,7 +788,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
@@ -810,7 +808,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -827,7 +825,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
@@ -844,7 +842,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
@@ -852,7 +850,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
@@ -863,7 +861,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
@@ -877,7 +875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
@@ -897,7 +895,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
@@ -911,7 +909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
@@ -931,7 +929,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E88F89-0346-43C9-A20F-380B5A360569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232EAF49-3A60-4953-ABD3-38A56B433182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21105" yWindow="1740" windowWidth="21060" windowHeight="17130" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-31920" yWindow="1740" windowWidth="30165" windowHeight="16515" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -583,7 +583,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42384B1-3750-4D72-9C5D-79E74248529A}">
   <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -662,7 +664,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="3">
-        <v>45743</v>
+        <v>45750</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232EAF49-3A60-4953-ABD3-38A56B433182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0555050E-19D5-4063-85B8-4835B489D7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31920" yWindow="1740" windowWidth="30165" windowHeight="16515" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="795" yWindow="1140" windowWidth="27570" windowHeight="14220" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42384B1-3750-4D72-9C5D-79E74248529A}">
   <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -621,7 +621,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3">
-        <v>45742</v>
+        <v>45760</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
@@ -664,7 +664,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="3">
-        <v>45750</v>
+        <v>45760</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
@@ -719,7 +719,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="3">
-        <v>45712</v>
+        <v>45760</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -731,7 +731,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>45742</v>
+        <v>45760</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>25</v>
@@ -751,7 +751,7 @@
         <v>51</v>
       </c>
       <c r="G10" s="3">
-        <v>45699</v>
+        <v>45754</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
@@ -777,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="3">
-        <v>45721</v>
+        <v>45760</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>29</v>
@@ -795,7 +795,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="3">
-        <v>45743</v>
+        <v>45760</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>26</v>
@@ -815,13 +815,13 @@
         <v>14</v>
       </c>
       <c r="D14" s="3">
-        <v>45733</v>
+        <v>45760</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G14" s="3">
-        <v>45067</v>
+        <v>45754</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>44</v>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0555050E-19D5-4063-85B8-4835B489D7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7038708-1A57-46C1-A462-563FF2B9447C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1140" windowWidth="27570" windowHeight="14220" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-27990" yWindow="2685" windowWidth="26085" windowHeight="17160" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42384B1-3750-4D72-9C5D-79E74248529A}">
   <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -664,7 +664,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="3">
-        <v>45760</v>
+        <v>45764</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7038708-1A57-46C1-A462-563FF2B9447C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ECD5C0-CF1B-41FE-8739-448E2A7DA186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="2685" windowWidth="26085" windowHeight="17160" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="47720" yWindow="4500" windowWidth="28800" windowHeight="15370" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -584,27 +584,27 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" customWidth="1"/>
+    <col min="5" max="5" width="1.453125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -615,7 +615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -636,7 +636,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -656,7 +656,7 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -677,7 +677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
@@ -696,7 +696,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -714,7 +714,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -726,7 +726,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -740,7 +740,7 @@
         <v>45717</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
@@ -754,7 +754,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
@@ -769,7 +769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -790,7 +790,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
@@ -810,7 +810,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -827,7 +827,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
@@ -844,7 +844,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
@@ -852,7 +852,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
@@ -863,7 +863,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
@@ -877,7 +877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
@@ -897,7 +897,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
@@ -911,7 +911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
@@ -931,7 +931,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ECD5C0-CF1B-41FE-8739-448E2A7DA186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F76484-072F-4E62-A9B4-3E06B1237372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47720" yWindow="4500" windowWidth="28800" windowHeight="15370" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-51405" yWindow="2040" windowWidth="29535" windowHeight="15345" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -584,27 +584,27 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" customWidth="1"/>
-    <col min="5" max="5" width="1.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="1.42578125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
-    <col min="9" max="9" width="26.453125" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -615,7 +615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -636,7 +636,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -656,7 +656,7 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -677,7 +677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
@@ -696,7 +696,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -714,7 +714,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -726,7 +726,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -740,7 +740,7 @@
         <v>45717</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
@@ -754,7 +754,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
@@ -769,7 +769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -790,7 +790,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
@@ -810,7 +810,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -827,7 +827,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
@@ -844,7 +844,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
@@ -852,7 +852,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
@@ -863,7 +863,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
@@ -877,7 +877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
@@ -897,7 +897,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
@@ -911,7 +911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
@@ -931,7 +931,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F76484-072F-4E62-A9B4-3E06B1237372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCE8246-5554-433B-82D2-7560CD5E1DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51405" yWindow="2040" windowWidth="29535" windowHeight="15345" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-24405" yWindow="1260" windowWidth="24105" windowHeight="18210" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42384B1-3750-4D72-9C5D-79E74248529A}">
   <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCE8246-5554-433B-82D2-7560CD5E1DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F286AD-B954-44EE-A030-F0BC0252B07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24405" yWindow="1260" windowWidth="24105" windowHeight="18210" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="10605" yWindow="3690" windowWidth="22335" windowHeight="13230" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -584,7 +584,7 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -894,7 +894,7 @@
         <v>21</v>
       </c>
       <c r="J19" s="3">
-        <v>45095</v>
+        <v>45781</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F286AD-B954-44EE-A030-F0BC0252B07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBB0A52-55A1-4E9C-A35A-26375B9BE736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10605" yWindow="3690" windowWidth="22335" windowHeight="13230" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="1820" yWindow="1320" windowWidth="27220" windowHeight="17030" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>Healthcare</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Financials</t>
+  </si>
+  <si>
+    <t>Economics</t>
   </si>
 </sst>
 </file>
@@ -584,27 +587,27 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" customWidth="1"/>
+    <col min="5" max="5" width="1.453125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -615,7 +618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -636,7 +639,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -656,7 +659,7 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -677,7 +680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
@@ -696,7 +699,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -714,7 +717,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -726,7 +729,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -740,7 +743,7 @@
         <v>45717</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
@@ -754,7 +757,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
@@ -769,7 +772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -790,7 +793,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
@@ -810,7 +813,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -827,7 +830,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
@@ -844,7 +847,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
@@ -852,18 +855,15 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="3">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
@@ -874,10 +874,13 @@
         <v>39</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="J18" s="3">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
@@ -891,13 +894,10 @@
         <v>45040</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="3">
-        <v>45781</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
@@ -908,15 +908,18 @@
         <v>40</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="J20" s="3">
+        <v>45781</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="3">
-        <v>44989</v>
+        <v>45803</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>38</v>
@@ -925,13 +928,10 @@
         <v>45157</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="3">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
@@ -940,6 +940,12 @@
       </c>
       <c r="F22" t="s">
         <v>35</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="3">
+        <v>45657</v>
       </c>
     </row>
   </sheetData>
@@ -959,9 +965,9 @@
     <hyperlink ref="B4" r:id="rId13" xr:uid="{8948FD7E-0C11-4C65-9F65-A8131ECB1883}"/>
     <hyperlink ref="B18" r:id="rId14" display="Computational Chemistry" xr:uid="{00DB20DF-95BE-4ACB-833E-78679B1DEBE4}"/>
     <hyperlink ref="I15" r:id="rId15" xr:uid="{B5350D8F-E15C-4D97-AFF4-87976D01709F}"/>
-    <hyperlink ref="I18" r:id="rId16" xr:uid="{A4E89726-D06D-4F39-9FDF-8E6FF757E15B}"/>
-    <hyperlink ref="I20" r:id="rId17" xr:uid="{E240AB7D-EB2A-4C47-ACE3-6DC4E97E10C6}"/>
-    <hyperlink ref="I17" r:id="rId18" xr:uid="{03928271-2931-4899-87B7-284D280588C6}"/>
+    <hyperlink ref="I19" r:id="rId16" xr:uid="{A4E89726-D06D-4F39-9FDF-8E6FF757E15B}"/>
+    <hyperlink ref="I21" r:id="rId17" xr:uid="{E240AB7D-EB2A-4C47-ACE3-6DC4E97E10C6}"/>
+    <hyperlink ref="I18" r:id="rId18" xr:uid="{03928271-2931-4899-87B7-284D280588C6}"/>
     <hyperlink ref="B19" r:id="rId19" xr:uid="{F9503C01-C6D8-4507-B1D8-228E2A2FFAAD}"/>
     <hyperlink ref="I13" r:id="rId20" xr:uid="{A65108F0-2E05-4701-9FD5-ECB4643B538C}"/>
     <hyperlink ref="F13" r:id="rId21" xr:uid="{80621359-2F8B-4A5B-BC6A-2FB82EA4769B}"/>
@@ -973,7 +979,7 @@
     <hyperlink ref="F4" r:id="rId27" xr:uid="{7461AF2B-1114-4E32-AB2C-C6FAFC7D3A58}"/>
     <hyperlink ref="C6" r:id="rId28" xr:uid="{2C353417-9F4E-40AB-B114-1CBC57D488C4}"/>
     <hyperlink ref="F14" r:id="rId29" xr:uid="{48D24448-8336-4F85-A615-1301297E8AB2}"/>
-    <hyperlink ref="I19" r:id="rId30" xr:uid="{B734B13E-ABA2-4947-A17D-61A56EEED260}"/>
+    <hyperlink ref="I20" r:id="rId30" xr:uid="{B734B13E-ABA2-4947-A17D-61A56EEED260}"/>
     <hyperlink ref="I12" r:id="rId31" xr:uid="{153B455A-C061-4AA8-928A-EEA0E41E6023}"/>
     <hyperlink ref="I6" r:id="rId32" xr:uid="{82AAD8AA-25D4-4169-92B7-9ED20F2227BC}"/>
     <hyperlink ref="F12" r:id="rId33" xr:uid="{04269E00-6C8E-43B0-AEAA-6E9875BD4BB1}"/>
@@ -982,7 +988,7 @@
     <hyperlink ref="B15" r:id="rId36" xr:uid="{D1C3BC07-4E48-4FE6-9B08-2FF79CC92C96}"/>
     <hyperlink ref="F10" r:id="rId37" xr:uid="{145E9CFF-8EF8-4BAF-B794-51479F59948C}"/>
     <hyperlink ref="B22" r:id="rId38" xr:uid="{4B2F483A-CC17-455C-A077-339776B7B188}"/>
-    <hyperlink ref="I21" r:id="rId39" xr:uid="{4605C416-EB83-46E2-BC02-38491D81884F}"/>
+    <hyperlink ref="I22" r:id="rId39" xr:uid="{4605C416-EB83-46E2-BC02-38491D81884F}"/>
     <hyperlink ref="F9" r:id="rId40" xr:uid="{6027798A-AD6C-4184-B5BD-AD2E0FFF912E}"/>
     <hyperlink ref="I14" r:id="rId41" xr:uid="{58E30F9F-C4AC-49C0-954A-3705C3A32C26}"/>
     <hyperlink ref="F5" r:id="rId42" xr:uid="{CF731145-D908-4126-8E01-24EB9D7C30A7}"/>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBB0A52-55A1-4E9C-A35A-26375B9BE736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33B5022-C38A-47B0-8FC8-3A6CE9EB91F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="1320" windowWidth="27220" windowHeight="17030" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="56470" yWindow="4650" windowWidth="18350" windowHeight="15420" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -722,7 +722,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="3">
-        <v>45760</v>
+        <v>45810</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33B5022-C38A-47B0-8FC8-3A6CE9EB91F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F101063-A04F-4540-9847-7E48FE47B288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56470" yWindow="4650" windowWidth="18350" windowHeight="15420" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="11040" yWindow="1180" windowWidth="25360" windowHeight="18170" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -667,7 +667,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="3">
-        <v>45764</v>
+        <v>45822</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F101063-A04F-4540-9847-7E48FE47B288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B3B684-0A78-4578-B859-D9E539511AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="1180" windowWidth="25360" windowHeight="18170" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="47510" yWindow="2100" windowWidth="23810" windowHeight="16130" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -798,7 +798,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="3">
-        <v>45760</v>
+        <v>45824</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>26</v>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B3B684-0A78-4578-B859-D9E539511AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03513D37-542D-463A-A7ED-68C1A7D8158A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47510" yWindow="2100" windowWidth="23810" windowHeight="16130" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="25485" yWindow="3630" windowWidth="22935" windowHeight="15375" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -587,27 +587,27 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" customWidth="1"/>
-    <col min="5" max="5" width="1.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="1.42578125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
-    <col min="9" max="9" width="26.453125" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -639,7 +639,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -659,7 +659,7 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -680,7 +680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
@@ -699,7 +699,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -717,7 +717,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -729,7 +729,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -743,7 +743,7 @@
         <v>45717</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
@@ -757,7 +757,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
@@ -772,7 +772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -793,7 +793,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
@@ -813,7 +813,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -830,7 +830,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
@@ -847,7 +847,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
@@ -855,7 +855,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
@@ -863,7 +863,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
@@ -880,7 +880,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
@@ -897,7 +897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
@@ -914,7 +914,7 @@
         <v>45781</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
@@ -931,7 +931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03513D37-542D-463A-A7ED-68C1A7D8158A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C707283D-9ACE-4AB8-BE0B-44605FFA5093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25485" yWindow="3630" windowWidth="22935" windowHeight="15375" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="42150" yWindow="2920" windowWidth="22230" windowHeight="14240" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -587,27 +587,27 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" customWidth="1"/>
+    <col min="5" max="5" width="1.453125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -639,7 +639,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -656,10 +656,10 @@
         <v>13</v>
       </c>
       <c r="J4" s="3">
-        <v>45742</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+        <v>45845</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -667,7 +667,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="3">
-        <v>45822</v>
+        <v>45845</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
@@ -680,7 +680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
@@ -699,7 +699,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -717,7 +717,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -729,7 +729,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -743,7 +743,7 @@
         <v>45717</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
@@ -757,7 +757,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
@@ -772,7 +772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -793,7 +793,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
@@ -813,7 +813,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -830,7 +830,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
@@ -847,7 +847,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
@@ -855,7 +855,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
@@ -863,7 +863,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
@@ -880,7 +880,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
@@ -897,7 +897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
@@ -914,7 +914,7 @@
         <v>45781</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
@@ -931,7 +931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
